--- a/qa/01.测试用例/道具系统/合成&分解系统/合成&分解测试用例.xlsx
+++ b/qa/01.测试用例/道具系统/合成&分解系统/合成&分解测试用例.xlsx
@@ -19,12 +19,12 @@
     <sheet name="IM提示" sheetId="37" r:id="rId5"/>
     <sheet name="附录" sheetId="27" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="758">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -1213,10 +1213,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>不响应tips</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>查看【确定】按钮</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1881,15 +1877,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宠物B未锁定已上阵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物C已锁定未上阵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物D已锁定已上阵</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2183,10 +2171,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>底面一个魔法阵（很简单的就行），然后外部有星星不断被吸入法阵，2秒后出现一个爆出来的特效。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>合成成功，美术图</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2287,14 +2271,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>与宠物界面装备列表项显示逻辑一致，去掉【装备】按钮并添加复选框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>与宠物列表项显示逻辑一致，不显示宠物装备改为显示战力并添加复选框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>点击列表项非icon非复选框位置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2387,10 +2363,6 @@
   </si>
   <si>
     <t>列表中所有宠物未选中，弹出提示信息compose_record_004</t>
-  </si>
-  <si>
-    <t>执行分解操作，分解成功后弹出提示信息compose_record_001、compose_record_002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
@@ -2958,6 +2930,70 @@
   </si>
   <si>
     <t>BG-1073</t>
+  </si>
+  <si>
+    <t>查看UI动画</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图所示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>待美术设计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看UI动画</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>从中间向周围扩散</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>与宠物界面装备列表项显示逻辑一致，去掉【装备】按钮并添加复选框，名称显示为固定字色</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>与宠物列表项显示逻辑一致，不显示宠物属性和宠物装备改为显示战力并添加复选框，名称显示为固定字色</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行分解操作，分解成功后弹出提示信息compose_record_001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行分解操作，分解成功后弹出提示信息compose_record_001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物B未锁定已上阵（副本、pvp防守、派去大冒险、公会基地中）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物D已锁定已上阵（副本、pvp防守、派去大冒险、公会基地中）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解后玩家拥有宠物为0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解后玩家拥有宠物不为0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解操作不成功，弹出IM提示信息compose_record_007</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应tips，屏蔽获得途径</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应tips，屏蔽获得途径</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3211,7 +3247,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3290,6 +3326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3774,7 +3816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3956,6 +3998,15 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3965,11 +4016,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="137">
@@ -4111,7 +4159,7 @@
     <cellStyle name="好 2" xfId="79"/>
     <cellStyle name="检查单元格 2" xfId="25"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="170">
     <dxf>
       <font>
         <b/>
@@ -4895,6 +4943,60 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -5489,6 +5591,78 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5563,14 +5737,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>242267</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>14488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>687457</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1717</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5601,13 +5775,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>297657</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>207064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>632876</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5638,58 +5812,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>29158</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12030075" y="1638300"/>
-          <a:ext cx="4058233" cy="2781300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>41088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5700,7 +5830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5721,14 +5851,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2771</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5738,7 +5868,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5759,18 +5889,56 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1099</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="5372100"/>
+          <a:ext cx="219075" cy="210649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429169</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5783,8 +5951,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886700" y="5372100"/>
-          <a:ext cx="219075" cy="210649"/>
+          <a:off x="12084326" y="1590262"/>
+          <a:ext cx="2367300" cy="1587626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657478</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12117457" y="3205370"/>
+          <a:ext cx="2562478" cy="1421830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5961,7 +6167,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>157369</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>745</xdr:rowOff>
+      <xdr:rowOff>746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5992,13 +6198,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>654325</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>599654</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>143874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6411,10 +6617,10 @@
     </row>
     <row r="7" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -7568,11 +7774,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L187" sqref="L187"/>
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7597,9 +7803,9 @@
       <c r="C1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -7650,7 +7856,7 @@
         <v>67</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -7664,7 +7870,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -7678,10 +7884,10 @@
         <v>71</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
@@ -7701,324 +7907,320 @@
         <v>164</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40"/>
+      <c r="B8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="79" t="s">
+        <v>742</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79" t="s">
+        <v>743</v>
+      </c>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="33">
         <v>2</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F9" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>83</v>
-      </c>
       <c r="H9" s="33" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="33">
+      <c r="H12" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="33">
         <v>2</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E13" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F13" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G13" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E13" s="39"/>
-      <c r="F13" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="47"/>
       <c r="H13" s="33" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E14" s="39"/>
       <c r="F14" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="33" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E15" s="39"/>
       <c r="F15" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16" s="39"/>
+      <c r="F16" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G16" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="39" t="s">
+      <c r="H16" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E17" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F17" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
+      <c r="H17" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="33">
+      <c r="H18" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="33">
         <v>3</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E19" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="33">
-        <v>4</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>98</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="33">
+        <v>4</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H20" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E21" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E22" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F24" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F25" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D26" s="33">
+        <v>5</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="F27" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E28" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F29" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F30" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="I30" s="71" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E20" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E21" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E22" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F23" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F24" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="33">
-        <v>5</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="F26" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E27" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F28" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="I28" s="39"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F29" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="I29" s="71" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F30" s="35" t="s">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F31" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G31" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E31" s="35" t="s">
+      <c r="H31" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E32" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F32" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G32" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="H31" s="33" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="F32" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>609</v>
-      </c>
-      <c r="I32" s="71" t="s">
-        <v>608</v>
+      <c r="H32" s="33" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8026,13 +8228,16 @@
       <c r="B33" s="55"/>
       <c r="D33" s="55"/>
       <c r="F33" s="39" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>605</v>
+        <v>602</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8040,16 +8245,13 @@
       <c r="B34" s="55"/>
       <c r="D34" s="55"/>
       <c r="F34" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>615</v>
+        <v>126</v>
       </c>
       <c r="H34" s="55" t="s">
-        <v>616</v>
-      </c>
-      <c r="I34" s="71" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8057,58 +8259,61 @@
       <c r="B35" s="55"/>
       <c r="D35" s="55"/>
       <c r="F35" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>605</v>
+        <v>609</v>
+      </c>
+      <c r="I35" s="71" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
       <c r="B36" s="55"/>
       <c r="D36" s="55"/>
-      <c r="E36" s="39" t="s">
-        <v>127</v>
-      </c>
       <c r="F36" s="39" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H36" s="55" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="55"/>
       <c r="D37" s="55"/>
+      <c r="E37" s="39" t="s">
+        <v>127</v>
+      </c>
       <c r="F37" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="55"/>
       <c r="D38" s="55"/>
-      <c r="E38" s="39" t="s">
-        <v>132</v>
+      <c r="F38" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8116,63 +8321,63 @@
       <c r="B39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>617</v>
+        <v>132</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>619</v>
+        <v>133</v>
       </c>
       <c r="H39" s="55" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
-      <c r="B40" s="69"/>
-      <c r="D40" s="69"/>
+      <c r="B40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="39" t="s">
+        <v>134</v>
+      </c>
       <c r="F40" s="39" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="69" t="s">
-        <v>603</v>
+        <v>612</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
-      <c r="B41" s="55"/>
-      <c r="D41" s="55">
-        <v>6</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>136</v>
-      </c>
+      <c r="B41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="F41" s="39" t="s">
-        <v>76</v>
+        <v>611</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="55" t="s">
-        <v>611</v>
+        <v>135</v>
+      </c>
+      <c r="H41" s="69" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
       <c r="B42" s="55"/>
-      <c r="D42" s="55"/>
+      <c r="D42" s="55">
+        <v>6</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="F42" s="39" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8180,13 +8385,13 @@
       <c r="B43" s="55"/>
       <c r="D43" s="55"/>
       <c r="F43" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8194,16 +8399,13 @@
       <c r="B44" s="55"/>
       <c r="D44" s="55"/>
       <c r="F44" s="39" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>620</v>
-      </c>
-      <c r="I44" s="71" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8211,44 +8413,47 @@
       <c r="B45" s="55"/>
       <c r="D45" s="55"/>
       <c r="F45" s="39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="55" t="s">
-        <v>611</v>
+        <v>613</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="55"/>
       <c r="D46" s="55"/>
-      <c r="E46" s="39" t="s">
-        <v>217</v>
-      </c>
       <c r="F46" s="39" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="H46" s="69" t="s">
-        <v>611</v>
+        <v>142</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="40"/>
       <c r="B47" s="55"/>
       <c r="D47" s="55"/>
+      <c r="E47" s="39" t="s">
+        <v>217</v>
+      </c>
       <c r="F47" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8256,13 +8461,13 @@
       <c r="B48" s="55"/>
       <c r="D48" s="55"/>
       <c r="F48" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8270,13 +8475,13 @@
       <c r="B49" s="55"/>
       <c r="D49" s="55"/>
       <c r="F49" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8284,60 +8489,60 @@
       <c r="B50" s="55"/>
       <c r="D50" s="55"/>
       <c r="F50" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="40"/>
       <c r="B51" s="55"/>
-      <c r="D51" s="55">
-        <v>7</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>146</v>
-      </c>
+      <c r="D51" s="55"/>
       <c r="F51" s="39" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="H51" s="55" t="s">
-        <v>603</v>
+        <v>226</v>
+      </c>
+      <c r="H51" s="69" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="40"/>
       <c r="B52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="D52" s="55">
+        <v>7</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>146</v>
+      </c>
       <c r="F52" s="39" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="55"/>
       <c r="D53" s="55"/>
       <c r="F53" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -8345,72 +8550,72 @@
       <c r="B54" s="55"/>
       <c r="D54" s="55"/>
       <c r="F54" s="39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H54" s="55" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A55" s="40"/>
       <c r="B55" s="55"/>
       <c r="D55" s="55"/>
       <c r="F55" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="55" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="40"/>
+      <c r="B56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="F56" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G56" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="H55" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="I55" s="71" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F56" s="35" t="s">
+      <c r="H56" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="I56" s="71" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F57" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G57" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="33" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D57" s="33">
+      <c r="H57" s="33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D58" s="33">
         <v>8</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E58" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F58" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G58" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="H57" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="40"/>
-      <c r="B58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="F58" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="55" t="s">
-        <v>611</v>
+      <c r="H58" s="33" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8418,13 +8623,13 @@
       <c r="B59" s="55"/>
       <c r="D59" s="55"/>
       <c r="F59" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8432,13 +8637,13 @@
       <c r="B60" s="55"/>
       <c r="D60" s="55"/>
       <c r="F60" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8446,16 +8651,13 @@
       <c r="B61" s="55"/>
       <c r="D61" s="55"/>
       <c r="F61" s="39" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H61" s="55" t="s">
-        <v>624</v>
-      </c>
-      <c r="I61" s="71" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8463,63 +8665,66 @@
       <c r="B62" s="55"/>
       <c r="D62" s="55"/>
       <c r="F62" s="39" t="s">
-        <v>627</v>
+        <v>138</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="H62" s="69" t="s">
-        <v>603</v>
+        <v>162</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="I62" s="71" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="40"/>
-      <c r="B63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="B63" s="55"/>
+      <c r="D63" s="55"/>
       <c r="F63" s="39" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>629</v>
-      </c>
-      <c r="H63" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="I63" s="71" t="s">
-        <v>626</v>
+        <v>161</v>
+      </c>
+      <c r="H63" s="69" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="40"/>
-      <c r="B64" s="55"/>
-      <c r="D64" s="55">
-        <v>9</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>163</v>
-      </c>
+      <c r="B64" s="69"/>
+      <c r="D64" s="69"/>
       <c r="F64" s="39" t="s">
-        <v>76</v>
+        <v>621</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>148</v>
+        <v>622</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>603</v>
+        <v>605</v>
+      </c>
+      <c r="I64" s="71" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="40"/>
       <c r="B65" s="55"/>
-      <c r="D65" s="55"/>
+      <c r="D65" s="55">
+        <v>9</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>163</v>
+      </c>
       <c r="F65" s="39" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8527,13 +8732,13 @@
       <c r="B66" s="55"/>
       <c r="D66" s="55"/>
       <c r="F66" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8541,13 +8746,13 @@
       <c r="B67" s="55"/>
       <c r="D67" s="55"/>
       <c r="F67" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8555,16 +8760,13 @@
       <c r="B68" s="55"/>
       <c r="D68" s="55"/>
       <c r="F68" s="39" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>625</v>
-      </c>
-      <c r="I68" s="71" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8572,788 +8774,790 @@
       <c r="B69" s="55"/>
       <c r="D69" s="55"/>
       <c r="F69" s="39" t="s">
-        <v>627</v>
+        <v>138</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69" s="69" t="s">
-        <v>603</v>
+        <v>162</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>618</v>
+      </c>
+      <c r="I69" s="71" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="40"/>
-      <c r="B70" s="69"/>
-      <c r="D70" s="69"/>
+      <c r="B70" s="55"/>
+      <c r="D70" s="55"/>
       <c r="F70" s="39" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>629</v>
+        <v>142</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>612</v>
-      </c>
-      <c r="I70" s="71" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="40"/>
-      <c r="B71" s="55"/>
-      <c r="D71" s="55">
-        <v>10</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>165</v>
+      <c r="B71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="F71" s="39" t="s">
+        <v>621</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H71" s="55" t="s">
-        <v>632</v>
+        <v>622</v>
+      </c>
+      <c r="H71" s="69" t="s">
+        <v>605</v>
+      </c>
+      <c r="I71" s="71" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="40"/>
       <c r="B72" s="55"/>
       <c r="D72" s="55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="I72" s="71" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="40"/>
       <c r="B73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="F73" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>170</v>
+      <c r="D73" s="55">
+        <v>11</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="F73" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="G73" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="H73" s="55" t="s">
-        <v>603</v>
+        <v>624</v>
+      </c>
+      <c r="I73" s="71" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="40"/>
       <c r="B74" s="55"/>
       <c r="D74" s="55"/>
-      <c r="F74" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>171</v>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" s="72" t="s">
+        <v>170</v>
       </c>
       <c r="H74" s="55" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="40"/>
       <c r="B75" s="55"/>
       <c r="D75" s="55"/>
-      <c r="F75" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>171</v>
-      </c>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="G75" s="72"/>
       <c r="H75" s="55" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="40"/>
       <c r="B76" s="55"/>
-      <c r="D76" s="55">
-        <v>12</v>
-      </c>
-      <c r="E76" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="G76" s="39" t="s">
-        <v>173</v>
-      </c>
+      <c r="D76" s="55"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="G76" s="72"/>
       <c r="H76" s="55" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="40"/>
       <c r="B77" s="55"/>
-      <c r="D77" s="55"/>
+      <c r="D77" s="55">
+        <v>12</v>
+      </c>
       <c r="E77" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>537</v>
+        <v>173</v>
       </c>
       <c r="H77" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="I77" s="71" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="40"/>
       <c r="B78" s="55"/>
       <c r="D78" s="55"/>
+      <c r="E78" s="39" t="s">
+        <v>174</v>
+      </c>
       <c r="F78" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H78" s="55" t="s">
-        <v>637</v>
+        <v>605</v>
+      </c>
+      <c r="I78" s="71" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40"/>
       <c r="B79" s="55"/>
-      <c r="D79" s="55">
-        <v>13</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>177</v>
+      <c r="D79" s="55"/>
+      <c r="F79" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>178</v>
+        <v>535</v>
       </c>
       <c r="H79" s="55" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40"/>
       <c r="B80" s="55"/>
-      <c r="D80" s="55"/>
+      <c r="D80" s="55">
+        <v>13</v>
+      </c>
       <c r="E80" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H80" s="55" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="40"/>
       <c r="B81" s="55"/>
       <c r="D81" s="55"/>
-      <c r="H81" s="55"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="45" t="s">
+      <c r="E81" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H81" s="55" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="40"/>
+      <c r="B82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="H82" s="55"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C83" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D83" s="33">
         <v>1</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E83" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F82" s="35" t="s">
+      <c r="F83" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="G82" s="35" t="s">
+      <c r="G83" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="H82" s="33" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="40"/>
-      <c r="B83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="F83" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="H83" s="55" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="H83" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40"/>
       <c r="B84" s="55"/>
-      <c r="D84" s="55">
+      <c r="D84" s="55"/>
+      <c r="F84" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H84" s="55" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A85" s="40"/>
+      <c r="B85" s="55"/>
+      <c r="D85" s="55">
         <v>2</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E85" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="F84" s="39" t="s">
+      <c r="F85" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="G85" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H85" s="55" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="40"/>
+      <c r="B86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="F86" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="G86" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="G84" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="H84" s="55" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="40"/>
-      <c r="B85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="F85" s="39" t="s">
-        <v>539</v>
-      </c>
-      <c r="G85" s="39" t="s">
-        <v>543</v>
-      </c>
-      <c r="H85" s="68" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A86" s="40"/>
-      <c r="B86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="F86" s="39" t="s">
-        <v>541</v>
-      </c>
-      <c r="G86" s="39" t="s">
+      <c r="H86" s="68" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A87" s="40"/>
+      <c r="B87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="F87" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="G87" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="H86" s="69" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="40"/>
-      <c r="B87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="F87" s="39" t="s">
-        <v>542</v>
-      </c>
-      <c r="G87" s="39" t="s">
-        <v>543</v>
-      </c>
       <c r="H87" s="69" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="40"/>
-      <c r="B88" s="55"/>
-      <c r="D88" s="55">
-        <v>3</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>189</v>
+      <c r="B88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="F88" s="39" t="s">
+        <v>539</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>192</v>
+        <v>540</v>
       </c>
       <c r="H88" s="69" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="40"/>
       <c r="B89" s="55"/>
       <c r="D89" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F89" s="39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="H89" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="I89" s="71" t="s">
-        <v>640</v>
+        <v>192</v>
+      </c>
+      <c r="H89" s="69" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="40"/>
       <c r="B90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="D90" s="55">
+        <v>4</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="F90" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H90" s="55" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="I90" s="71" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="40"/>
       <c r="B91" s="55"/>
-      <c r="D91" s="55">
-        <v>5</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>213</v>
+      <c r="D91" s="55"/>
+      <c r="F91" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H91" s="55" t="s">
-        <v>605</v>
+        <v>632</v>
+      </c>
+      <c r="I91" s="71" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="40"/>
       <c r="B92" s="55"/>
       <c r="D92" s="55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F92" s="39" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H92" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="I92" s="71" t="s">
-        <v>641</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="40"/>
       <c r="B93" s="55"/>
-      <c r="D93" s="55"/>
+      <c r="D93" s="55">
+        <v>6</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="F93" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H93" s="55" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="I93" s="71" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="40"/>
       <c r="B94" s="55"/>
       <c r="D94" s="55"/>
-      <c r="H94" s="55"/>
+      <c r="F94" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="H94" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="I94" s="71" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="95" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="40"/>
-      <c r="B95" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D95" s="55">
-        <v>1</v>
-      </c>
-      <c r="E95" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="G95" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="H95" s="55" t="s">
-        <v>658</v>
-      </c>
+      <c r="B95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="H95" s="55"/>
     </row>
     <row r="96" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="40"/>
-      <c r="B96" s="55"/>
-      <c r="D96" s="55"/>
+      <c r="B96" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96" s="55">
+        <v>1</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>203</v>
+      </c>
       <c r="F96" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="40"/>
       <c r="B97" s="55"/>
-      <c r="D97" s="55">
-        <v>2</v>
-      </c>
-      <c r="E97" s="39" t="s">
-        <v>208</v>
+      <c r="D97" s="55"/>
+      <c r="F97" s="39" t="s">
+        <v>205</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H97" s="55" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="40"/>
       <c r="B98" s="55"/>
       <c r="D98" s="55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="H98" s="70" t="s">
-        <v>659</v>
+        <v>209</v>
+      </c>
+      <c r="H98" s="55" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="40"/>
       <c r="B99" s="55"/>
       <c r="D99" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F99" s="39" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H99" s="70" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="40"/>
       <c r="B100" s="55"/>
       <c r="D100" s="55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="F100" s="39" t="s">
+        <v>211</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H100" s="70" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="40"/>
       <c r="B101" s="55"/>
       <c r="D101" s="55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F101" s="39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>544</v>
+        <v>215</v>
       </c>
       <c r="H101" s="70" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="40"/>
-      <c r="D102" s="55"/>
-      <c r="H102" s="55"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B103" s="45" t="s">
+      <c r="B102" s="55"/>
+      <c r="D102" s="55">
+        <v>6</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="H102" s="70" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="40"/>
+      <c r="D103" s="55"/>
+      <c r="H103" s="55"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B104" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C104" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="33">
+      <c r="D104" s="33">
         <v>1</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E104" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="G104" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="H103" s="33" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D104" s="33">
-        <v>2</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="G104" s="35" t="s">
-        <v>231</v>
-      </c>
       <c r="H104" s="33" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D105" s="33">
+        <v>2</v>
+      </c>
+      <c r="E105" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D106" s="33">
         <v>3</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="G105" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="H105" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D106" s="55">
-        <v>4</v>
       </c>
       <c r="E106" s="39" t="s">
         <v>230</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D107" s="55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107" s="39" t="s">
         <v>230</v>
       </c>
       <c r="G107" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D108" s="55">
+        <v>5</v>
+      </c>
+      <c r="E108" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G108" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="H107" s="33" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D108" s="33">
+      <c r="H108" s="33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D109" s="33">
         <v>6</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E109" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F108" s="35" t="s">
+      <c r="F109" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="G108" s="35" t="s">
+      <c r="G109" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="H108" s="69" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F109" s="35" t="s">
+      <c r="H109" s="69" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F110" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="G109" s="35" t="s">
+      <c r="G110" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="H109" s="69" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D110" s="33">
+      <c r="H110" s="69" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D111" s="33">
         <v>7</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E111" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F110" s="39" t="s">
+      <c r="F111" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="G110" s="39" t="s">
+      <c r="G111" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="H110" s="69" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="40"/>
-      <c r="B111" s="55"/>
-      <c r="D111" s="55"/>
-      <c r="F111" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="G111" s="39" t="s">
-        <v>241</v>
-      </c>
       <c r="H111" s="69" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="40"/>
       <c r="B112" s="55"/>
-      <c r="D112" s="55">
-        <v>8</v>
-      </c>
-      <c r="E112" s="39" t="s">
-        <v>230</v>
+      <c r="D112" s="55"/>
+      <c r="F112" s="39" t="s">
+        <v>240</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H112" s="69" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="40"/>
       <c r="B113" s="55"/>
       <c r="D113" s="55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113" s="39" t="s">
         <v>230</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H113" s="69" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="40"/>
       <c r="B114" s="55"/>
-      <c r="D114" s="55"/>
-      <c r="H114" s="55"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B115" s="45" t="s">
+      <c r="D114" s="55">
+        <v>9</v>
+      </c>
+      <c r="E114" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G114" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="H114" s="69" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="40"/>
+      <c r="B115" s="55"/>
+      <c r="D115" s="55"/>
+      <c r="H115" s="55"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B116" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C115" s="39" t="s">
+      <c r="C116" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="D115" s="33">
+      <c r="D116" s="33">
         <v>1</v>
       </c>
-      <c r="E115" s="35" t="s">
+      <c r="E116" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F115" s="35" t="s">
+      <c r="F116" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="G115" s="35" t="s">
+      <c r="G116" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="H115" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F116" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="G116" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="H116" s="70" t="s">
-        <v>658</v>
+      <c r="H116" s="33" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F117" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G117" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="H117" s="70" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F118" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="G117" s="39" t="s">
+      <c r="G118" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="H117" s="70" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="D118" s="33">
+      <c r="H118" s="70" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="D119" s="33">
         <v>2</v>
       </c>
-      <c r="E118" s="35" t="s">
+      <c r="E119" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="F118" s="39" t="s">
+      <c r="F119" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="G118" s="35" t="s">
+      <c r="G119" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H118" s="70" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A119" s="40"/>
-      <c r="B119" s="55"/>
-      <c r="D119" s="55"/>
-      <c r="F119" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="G119" s="39" t="s">
-        <v>259</v>
-      </c>
       <c r="H119" s="70" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -9361,111 +9565,111 @@
       <c r="B120" s="55"/>
       <c r="D120" s="55"/>
       <c r="F120" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G120" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H120" s="70" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A121" s="40"/>
       <c r="B121" s="55"/>
       <c r="D121" s="55"/>
-      <c r="H121" s="55"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B122" s="45" t="s">
+      <c r="F121" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="H121" s="70" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="40"/>
+      <c r="B122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="H122" s="55"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B123" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="C122" s="35" t="s">
+      <c r="C123" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D122" s="33">
+      <c r="D123" s="33">
         <v>1</v>
       </c>
-      <c r="E122" s="35" t="s">
+      <c r="E123" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="F122" s="35" t="s">
-        <v>661</v>
-      </c>
-      <c r="G122" s="35" t="s">
+      <c r="F123" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="G123" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="H122" s="33" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F123" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="G123" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H123" s="70" t="s">
-        <v>666</v>
+      <c r="H123" s="33" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F124" s="35" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>265</v>
       </c>
       <c r="H124" s="70" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="40"/>
-      <c r="B125" s="55"/>
-      <c r="D125" s="55"/>
-      <c r="F125" s="39" t="s">
-        <v>664</v>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F125" s="35" t="s">
+        <v>656</v>
       </c>
       <c r="G125" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H125" s="70" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="40"/>
       <c r="B126" s="55"/>
-      <c r="D126" s="55">
-        <v>2</v>
-      </c>
-      <c r="E126" s="39" t="s">
-        <v>267</v>
-      </c>
+      <c r="D126" s="55"/>
       <c r="F126" s="39" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H126" s="70" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
       <c r="A127" s="40"/>
       <c r="B127" s="55"/>
-      <c r="D127" s="55"/>
+      <c r="D127" s="55">
+        <v>2</v>
+      </c>
+      <c r="E127" s="39" t="s">
+        <v>267</v>
+      </c>
       <c r="F127" s="39" t="s">
-        <v>269</v>
+        <v>658</v>
       </c>
       <c r="G127" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H127" s="70" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
@@ -9473,13 +9677,13 @@
       <c r="B128" s="55"/>
       <c r="D128" s="55"/>
       <c r="F128" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H128" s="70" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
@@ -9487,85 +9691,87 @@
       <c r="B129" s="55"/>
       <c r="D129" s="55"/>
       <c r="F129" s="39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G129" s="39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H129" s="70" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
       <c r="A130" s="40"/>
       <c r="B130" s="55"/>
       <c r="D130" s="55"/>
-      <c r="H130" s="55"/>
+      <c r="F130" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G130" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="H130" s="70" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="131" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="40"/>
-      <c r="B131" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="C131" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="D131" s="55">
-        <v>1</v>
-      </c>
-      <c r="E131" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F131" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="G131" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="H131" s="55" t="s">
-        <v>604</v>
-      </c>
+      <c r="B131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="H131" s="55"/>
     </row>
     <row r="132" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="40"/>
-      <c r="B132" s="55"/>
-      <c r="D132" s="55"/>
+      <c r="B132" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D132" s="55">
+        <v>1</v>
+      </c>
+      <c r="E132" s="39" t="s">
+        <v>275</v>
+      </c>
       <c r="F132" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G132" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H132" s="55" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="40"/>
       <c r="B133" s="55"/>
-      <c r="D133" s="55">
-        <v>2</v>
-      </c>
-      <c r="E133" s="39" t="s">
-        <v>280</v>
-      </c>
+      <c r="D133" s="55"/>
       <c r="F133" s="39" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G133" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="H133" s="55"/>
+        <v>279</v>
+      </c>
+      <c r="H133" s="55" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="134" spans="1:10" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
       <c r="A134" s="40"/>
       <c r="B134" s="55"/>
-      <c r="D134" s="55"/>
+      <c r="D134" s="55">
+        <v>2</v>
+      </c>
+      <c r="E134" s="39" t="s">
+        <v>280</v>
+      </c>
       <c r="F134" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G134" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H134" s="55"/>
     </row>
@@ -9574,278 +9780,275 @@
       <c r="B135" s="55"/>
       <c r="D135" s="55"/>
       <c r="F135" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G135" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H135" s="55"/>
     </row>
-    <row r="136" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
       <c r="A136" s="40"/>
       <c r="B136" s="55"/>
       <c r="D136" s="55"/>
+      <c r="F136" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G136" s="39" t="s">
+        <v>283</v>
+      </c>
       <c r="H136" s="55"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="45" t="s">
+    <row r="137" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="40"/>
+      <c r="B137" s="55"/>
+      <c r="D137" s="55"/>
+      <c r="H137" s="55"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C137" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="D137" s="55">
+      <c r="C138" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D138" s="55">
         <v>1</v>
       </c>
-      <c r="E137" s="39" t="s">
+      <c r="E138" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="F137" s="39"/>
-      <c r="G137" s="39" t="s">
+      <c r="F138" s="39"/>
+      <c r="G138" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="H137" s="33" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="39" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="40"/>
-      <c r="B138" s="69"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="39" t="s">
-        <v>643</v>
-      </c>
-      <c r="G138" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="H138" s="69" t="s">
-        <v>645</v>
-      </c>
-      <c r="J138" s="39" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="33" x14ac:dyDescent="0.35">
-      <c r="D139" s="55">
+      <c r="H138" s="33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="40"/>
+      <c r="B139" s="69"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="39" t="s">
+        <v>636</v>
+      </c>
+      <c r="G139" s="79" t="s">
+        <v>744</v>
+      </c>
+      <c r="H139" s="69" t="s">
+        <v>638</v>
+      </c>
+      <c r="J139" s="39" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="D140" s="55">
         <v>2</v>
       </c>
-      <c r="E139" s="39" t="s">
+      <c r="E140" s="39" t="s">
         <v>292</v>
-      </c>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="H139" s="33" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D140" s="55">
-        <v>3</v>
-      </c>
-      <c r="E140" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="F140" s="39"/>
       <c r="G140" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="40"/>
+      <c r="B141" s="73"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="79" t="s">
+        <v>745</v>
+      </c>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79" t="s">
+        <v>746</v>
+      </c>
+      <c r="H141" s="73"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D142" s="55">
+        <v>3</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="H140" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="I140" s="71" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D141" s="55">
+      <c r="H142" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="I142" s="71" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D143" s="55">
         <v>4</v>
       </c>
-      <c r="E141" s="39" t="s">
+      <c r="E143" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="F141" s="39" t="s">
+      <c r="F143" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="G141" s="39" t="s">
+      <c r="G143" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="H141" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D142" s="55"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39" t="s">
+      <c r="H143" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D144" s="55"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="G142" s="39" t="s">
-        <v>546</v>
-      </c>
-      <c r="H142" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="I142" s="71" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D143" s="33">
+      <c r="G144" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="H144" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="I144" s="71" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D145" s="33">
         <v>5</v>
       </c>
-      <c r="E143" s="35" t="s">
+      <c r="E145" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="G143" s="35" t="s">
+      <c r="G145" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="H143" s="33" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F144" s="35" t="s">
+      <c r="H145" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F146" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="G144" s="35" t="s">
+      <c r="G146" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="H144" s="33" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E145" s="35" t="s">
+      <c r="H146" s="33" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E147" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G145" s="35" t="s">
+      <c r="G147" s="79" t="s">
+        <v>757</v>
+      </c>
+      <c r="H147" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D148" s="33">
+        <v>6</v>
+      </c>
+      <c r="E148" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="H145" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D146" s="33">
-        <v>6</v>
-      </c>
-      <c r="E146" s="39" t="s">
+      <c r="F148" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G148" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="F146" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="G146" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="H146" s="33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E147" s="39"/>
-      <c r="F147" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="G147" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H147" s="33" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E148" s="39"/>
-      <c r="F148" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="G148" s="39" t="s">
-        <v>652</v>
-      </c>
       <c r="H148" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="I148" s="71" t="s">
-        <v>653</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E149" s="39"/>
       <c r="F149" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G149" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="H149" s="33" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E150" s="39"/>
+      <c r="F150" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="G150" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="H150" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="I150" s="71" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E151" s="39"/>
+      <c r="F151" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G151" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="H151" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="I151" s="71" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D152" s="33">
+        <v>7</v>
+      </c>
+      <c r="E152" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="G149" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="H149" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="I149" s="71" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D150" s="33">
-        <v>7</v>
-      </c>
-      <c r="E150" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="F150" s="39"/>
-      <c r="G150" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="H150" s="33" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="40"/>
-      <c r="B151" s="55"/>
-      <c r="D151" s="55">
-        <v>8</v>
-      </c>
-      <c r="E151" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="F151" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="G151" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="H151" s="55" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="40"/>
-      <c r="B152" s="55"/>
-      <c r="D152" s="55"/>
-      <c r="F152" s="39" t="s">
-        <v>317</v>
-      </c>
+      <c r="F152" s="39"/>
       <c r="G152" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="H152" s="55" t="s">
-        <v>603</v>
+        <v>314</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="40"/>
       <c r="B153" s="55"/>
-      <c r="D153" s="55"/>
+      <c r="D153" s="55">
+        <v>8</v>
+      </c>
+      <c r="E153" s="39" t="s">
+        <v>315</v>
+      </c>
       <c r="F153" s="39" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G153" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H153" s="55" t="s">
-        <v>656</v>
+        <v>596</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9853,41 +10056,41 @@
       <c r="B154" s="55"/>
       <c r="D154" s="55"/>
       <c r="F154" s="39" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G154" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H154" s="55" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="40"/>
       <c r="B155" s="55"/>
       <c r="D155" s="55"/>
       <c r="F155" s="39" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H155" s="55" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="40"/>
       <c r="B156" s="55"/>
       <c r="D156" s="55"/>
       <c r="F156" s="39" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G156" s="39" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H156" s="55" t="s">
-        <v>713</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -9895,615 +10098,680 @@
       <c r="B157" s="55"/>
       <c r="D157" s="55"/>
       <c r="F157" s="39" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H157" s="55" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D158" s="33">
-        <v>9</v>
-      </c>
-      <c r="E158" s="39" t="s">
-        <v>330</v>
-      </c>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A158" s="40"/>
+      <c r="B158" s="55"/>
+      <c r="D158" s="55"/>
       <c r="F158" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="G158" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="H158" s="33" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+      <c r="G158" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H158" s="55" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A159" s="40"/>
       <c r="B159" s="55"/>
       <c r="D159" s="55"/>
       <c r="F159" s="39" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="H159" s="55" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D160" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E160" s="39" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F160" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="G160" s="39" t="s">
-        <v>312</v>
+        <v>328</v>
+      </c>
+      <c r="G160" s="35" t="s">
+        <v>330</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E161" s="39"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="40"/>
+      <c r="B161" s="55"/>
+      <c r="D161" s="55"/>
       <c r="F161" s="39" t="s">
         <v>299</v>
       </c>
       <c r="G161" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="H161" s="33" t="s">
-        <v>603</v>
+      <c r="H161" s="55" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D162" s="33">
+        <v>10</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G162" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="H162" s="33" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B163" s="55" t="s">
+      <c r="E163" s="39"/>
+      <c r="F163" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G163" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="H163" s="33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B165" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C163" s="39" t="s">
-        <v>642</v>
-      </c>
-      <c r="D163" s="33">
+      <c r="C165" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="D165" s="33">
         <v>1</v>
       </c>
-      <c r="E163" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="G163" s="39" t="s">
+      <c r="E165" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G165" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="H163" s="33" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="39" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="40"/>
-      <c r="B164" s="69"/>
-      <c r="D164" s="69"/>
-      <c r="E164" s="39" t="s">
-        <v>643</v>
-      </c>
-      <c r="G164" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="H164" s="69" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="D165" s="55">
+      <c r="H165" s="33" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="40"/>
+      <c r="B166" s="69"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="39" t="s">
+        <v>636</v>
+      </c>
+      <c r="G166" s="79" t="s">
+        <v>744</v>
+      </c>
+      <c r="H166" s="69" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="D167" s="55">
         <v>2</v>
       </c>
-      <c r="E165" s="39" t="s">
+      <c r="E167" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="F165" s="39"/>
-      <c r="G165" s="39" t="s">
+      <c r="F167" s="39"/>
+      <c r="G167" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="H165" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D166" s="55">
-        <v>3</v>
-      </c>
-      <c r="E166" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="H166" s="70" t="s">
-        <v>601</v>
-      </c>
-      <c r="I166" s="71" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D167" s="55">
-        <v>4</v>
-      </c>
-      <c r="E167" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="F167" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="G167" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="H167" s="70" t="s">
-        <v>603</v>
-      </c>
-      <c r="I167" s="39"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D168" s="55"/>
-      <c r="E168" s="39"/>
-      <c r="F168" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="G168" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="H168" s="70" t="s">
-        <v>601</v>
-      </c>
-      <c r="I168" s="71" t="s">
-        <v>648</v>
-      </c>
+      <c r="H167" s="33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="40"/>
+      <c r="B168" s="73"/>
+      <c r="D168" s="73"/>
+      <c r="E168" s="79" t="s">
+        <v>745</v>
+      </c>
+      <c r="F168" s="79"/>
+      <c r="G168" s="79" t="s">
+        <v>746</v>
+      </c>
+      <c r="H168" s="73"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D169" s="55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F169" s="39"/>
       <c r="G169" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="H169" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="I169" s="71" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D170" s="55">
+        <v>4</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="F170" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G170" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="H170" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="I170" s="39"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D171" s="55"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G171" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H171" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="I171" s="71" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D172" s="55">
+        <v>5</v>
+      </c>
+      <c r="E172" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="F172" s="39"/>
+      <c r="G172" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="H169" s="33" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D170" s="55"/>
-      <c r="E170" s="39"/>
-      <c r="F170" s="39" t="s">
-        <v>547</v>
-      </c>
-      <c r="G170" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="H170" s="33" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="40"/>
-      <c r="B171" s="55"/>
-      <c r="D171" s="55"/>
-      <c r="F171" s="39" t="s">
-        <v>548</v>
-      </c>
-      <c r="G171" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="H171" s="55" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="40"/>
-      <c r="B172" s="55"/>
-      <c r="D172" s="55"/>
-      <c r="F172" s="39" t="s">
-        <v>549</v>
-      </c>
-      <c r="G172" s="39" t="s">
-        <v>709</v>
-      </c>
-      <c r="H172" s="55" t="s">
-        <v>658</v>
+      <c r="H172" s="33" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D173" s="55"/>
-      <c r="E173" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="39" t="s">
+        <v>543</v>
+      </c>
       <c r="G173" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H173" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D174" s="55">
-        <v>6</v>
-      </c>
-      <c r="E174" s="39" t="s">
-        <v>304</v>
-      </c>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="40"/>
+      <c r="B174" s="55"/>
+      <c r="D174" s="55"/>
       <c r="F174" s="39" t="s">
-        <v>289</v>
+        <v>544</v>
       </c>
       <c r="G174" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="H174" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+      <c r="H174" s="55" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="40"/>
+      <c r="B175" s="55"/>
       <c r="D175" s="55"/>
-      <c r="E175" s="39"/>
       <c r="F175" s="39" t="s">
-        <v>306</v>
+        <v>545</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H175" s="33" t="s">
-        <v>658</v>
+        <v>702</v>
+      </c>
+      <c r="H175" s="55" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D176" s="55"/>
-      <c r="E176" s="39"/>
-      <c r="F176" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="G176" s="39" t="s">
-        <v>652</v>
-      </c>
-      <c r="H176" s="70" t="s">
-        <v>601</v>
-      </c>
-      <c r="I176" s="71" t="s">
-        <v>653</v>
+      <c r="E176" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F176" s="39"/>
+      <c r="G176" s="79" t="s">
+        <v>756</v>
+      </c>
+      <c r="H176" s="33" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D177" s="55"/>
-      <c r="E177" s="39"/>
+      <c r="D177" s="55">
+        <v>6</v>
+      </c>
+      <c r="E177" s="39" t="s">
+        <v>303</v>
+      </c>
       <c r="F177" s="39" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="G177" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="H177" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="H177" s="70" t="s">
-        <v>601</v>
-      </c>
-      <c r="I177" s="71" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="178" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D178" s="55">
-        <v>7</v>
-      </c>
-      <c r="E178" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="F178" s="39"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="39" t="s">
+        <v>305</v>
+      </c>
       <c r="G178" s="39" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H178" s="33" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="179" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D179" s="55">
-        <v>8</v>
-      </c>
-      <c r="E179" s="39" t="s">
-        <v>316</v>
-      </c>
+      <c r="D179" s="55"/>
+      <c r="E179" s="39"/>
       <c r="F179" s="39" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="H179" s="33" t="s">
-        <v>716</v>
+        <v>645</v>
+      </c>
+      <c r="H179" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="I179" s="71" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="180" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D180" s="55"/>
       <c r="E180" s="39"/>
       <c r="F180" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G180" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="H180" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="I180" s="71" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="181" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D181" s="55">
+        <v>7</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F181" s="39"/>
+      <c r="G181" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="H181" s="33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="182" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D182" s="55">
+        <v>8</v>
+      </c>
+      <c r="E182" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="F182" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="G180" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="H180" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="181" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D181" s="55"/>
-      <c r="E181" s="39"/>
-      <c r="F181" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="G181" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="H181" s="33" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D182" s="55"/>
-      <c r="E182" s="39"/>
-      <c r="F182" s="39" t="s">
-        <v>321</v>
-      </c>
       <c r="G182" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H182" s="33" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="183" spans="4:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="D183" s="55">
-        <v>9</v>
-      </c>
-      <c r="E183" s="72" t="s">
-        <v>550</v>
-      </c>
-      <c r="F183" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="G183" s="72" t="s">
-        <v>551</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="183" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D183" s="55"/>
+      <c r="E183" s="39"/>
+      <c r="F183" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G183" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="H183" s="33" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="184" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D184" s="55"/>
-      <c r="E184" s="72"/>
-      <c r="F184" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="G184" s="72" t="s">
-        <v>552</v>
+      <c r="E184" s="39"/>
+      <c r="F184" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G184" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H184" s="33" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="185" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D185" s="55"/>
-      <c r="E185" s="72"/>
-      <c r="F185" s="72" t="s">
+      <c r="E185" s="39"/>
+      <c r="F185" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G185" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H185" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="186" spans="4:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="D186" s="55">
+        <v>9</v>
+      </c>
+      <c r="E186" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="F186" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="G186" s="72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="187" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D187" s="55"/>
+      <c r="E187" s="72"/>
+      <c r="F187" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="G187" s="72" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="188" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D188" s="55"/>
+      <c r="E188" s="72"/>
+      <c r="F188" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="G188" s="72" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="189" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E189" s="72"/>
+      <c r="F189" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="G189" s="72" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="190" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D190" s="33">
+        <v>10</v>
+      </c>
+      <c r="E190" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="F190" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="G185" s="72" t="s">
+      <c r="G190" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H190" s="33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="191" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F191" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="G191" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="H191" s="33" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="192" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F192" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="G192" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H192" s="33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F193" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G193" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="H193" s="33" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D194" s="33">
+        <v>11</v>
+      </c>
+      <c r="E194" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="G194" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="H194" s="33" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D195" s="33">
+        <v>12</v>
+      </c>
+      <c r="E195" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G195" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="H195" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="74"/>
+      <c r="B197" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="D197" s="75">
+        <v>1</v>
+      </c>
+      <c r="E197" s="72" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="186" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E186" s="72"/>
-      <c r="F186" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="G186" s="72" t="s">
+      <c r="G197" s="72" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="187" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D187" s="33">
-        <v>10</v>
-      </c>
-      <c r="E187" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="F187" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="G187" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="H187" s="33" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="188" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="F188" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="G188" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="H188" s="33" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="189" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="F189" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="G189" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="H189" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="F190" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="G190" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="H190" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D191" s="33">
-        <v>11</v>
-      </c>
-      <c r="E191" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="G191" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="H191" s="33" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D192" s="33">
-        <v>12</v>
-      </c>
-      <c r="E192" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="G192" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="H192" s="33" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="76"/>
-      <c r="B194" s="77" t="s">
+      <c r="H197" s="75"/>
+    </row>
+    <row r="198" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A198" s="74"/>
+      <c r="B198" s="75"/>
+      <c r="D198" s="75"/>
+      <c r="F198" s="72" t="s">
+        <v>555</v>
+      </c>
+      <c r="G198" s="72" t="s">
+        <v>557</v>
+      </c>
+      <c r="H198" s="75"/>
+    </row>
+    <row r="199" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A199" s="74"/>
+      <c r="B199" s="75"/>
+      <c r="D199" s="75"/>
+      <c r="F199" s="72" t="s">
         <v>556</v>
       </c>
-      <c r="C194" s="72" t="s">
-        <v>555</v>
-      </c>
-      <c r="D194" s="77">
-        <v>1</v>
-      </c>
-      <c r="E194" s="72" t="s">
-        <v>557</v>
-      </c>
-      <c r="G194" s="72" t="s">
+      <c r="G199" s="72" t="s">
         <v>558</v>
       </c>
-      <c r="H194" s="77"/>
-    </row>
-    <row r="195" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A195" s="76"/>
-      <c r="B195" s="77"/>
-      <c r="D195" s="77"/>
-      <c r="F195" s="72" t="s">
+      <c r="H199" s="75"/>
+    </row>
+    <row r="200" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="74"/>
+      <c r="B200" s="75"/>
+      <c r="D200" s="75">
+        <v>2</v>
+      </c>
+      <c r="E200" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="G195" s="72" t="s">
+      <c r="G200" s="72" t="s">
+        <v>560</v>
+      </c>
+      <c r="H200" s="75"/>
+    </row>
+    <row r="201" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A201" s="74"/>
+      <c r="B201" s="75"/>
+      <c r="D201" s="75"/>
+      <c r="F201" s="72" t="s">
         <v>561</v>
       </c>
-      <c r="H195" s="77"/>
-    </row>
-    <row r="196" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A196" s="76"/>
-      <c r="B196" s="77"/>
-      <c r="D196" s="77"/>
-      <c r="F196" s="72" t="s">
-        <v>560</v>
-      </c>
-      <c r="G196" s="72" t="s">
+      <c r="G201" s="72" t="s">
+        <v>563</v>
+      </c>
+      <c r="H201" s="75"/>
+    </row>
+    <row r="202" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A202" s="74"/>
+      <c r="B202" s="75"/>
+      <c r="D202" s="75"/>
+      <c r="F202" s="72" t="s">
         <v>562</v>
       </c>
-      <c r="H196" s="77"/>
-    </row>
-    <row r="197" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="76"/>
-      <c r="B197" s="77"/>
-      <c r="D197" s="77">
-        <v>2</v>
-      </c>
-      <c r="E197" s="72" t="s">
-        <v>563</v>
-      </c>
-      <c r="G197" s="72" t="s">
+      <c r="G202" s="72" t="s">
         <v>564</v>
       </c>
-      <c r="H197" s="77"/>
-    </row>
-    <row r="198" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A198" s="76"/>
-      <c r="B198" s="77"/>
-      <c r="D198" s="77"/>
-      <c r="F198" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="G198" s="72" t="s">
-        <v>567</v>
-      </c>
-      <c r="H198" s="77"/>
-    </row>
-    <row r="199" spans="1:8" s="72" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A199" s="76"/>
-      <c r="B199" s="77"/>
-      <c r="D199" s="77"/>
-      <c r="F199" s="72" t="s">
-        <v>566</v>
-      </c>
-      <c r="G199" s="72" t="s">
-        <v>568</v>
-      </c>
-      <c r="H199" s="77"/>
+      <c r="H202" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 C12:D19 H12:IS19 F32:F35 C31:E35 H64:IS67 C57:E71 A1:B94 A102 A95:C101 C45:F50 A131:A136 D133:E135 H133:IS135 C137:C142 H137:IS139 E160:E161 A137:B161 C146:D161 H146:IS147 G159:G161 A162:A164 D163:F163 C165:C185 H163:IS165 E146:G157 D169:G173 A165:B1048576 C3:IS3 G31:IS31 C51:IS54 G57:IS60 G71:IS71 D131:IS132 D136:IS136 C143:IS145 D162:IS162 C73:IS76 C186:IS65228 C6:IS11 J4:IS5 C4:G4 C5:H5 C20:IS28 G33:IS33 G32:H32 J32:IS32 C30:IS30 C29:H29 J29:IS29 G35:IS35 G34:H34 J34:IS34 C56:IS56 C55:H55 J55:IS55 C36:IS43 C44:H44 J44:IS44 H45:IS50 H68 J61:IS63 J68:IS70 G61:H61 G62 G63:H63 C72:H72 J72:IS72 C77:H77 J77:IS77 C78:IS88 C91:IS91 C89:H90 J89:IS90 C94:IS94 C92:H93 J92:IS93 D164 H142 J142:IS142 H141:IS141 H140 J140:IS140 H150:IS161 H148:H149 J148:IS149 D95:IS102 A103:IS130 H169:IS175 J166:IS168 H178:IS185 J176:IS177">
-    <cfRule type="cellIs" dxfId="155" priority="218" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 C13:D20 H13:IS20 F33:F36 C32:E36 H65:IS68 C58:E72 A1:B95 A103 A96:C102 C46:F51 A132:A137 D134:E136 H134:IS136 C138:C144 H138:IS141 E162:E163 A138:B163 C148:D163 H148:IS149 G161:G163 A164:A166 D165:F165 C167:C188 H165:IS168 E148:G159 D172:G176 A167:B1048576 C3:IS3 G32:IS32 C52:IS55 G58:IS61 G72:IS72 D132:IS133 D137:IS137 C145:IS147 D164:IS164 C74:IS77 C189:IS65231 C6:IS12 J4:IS5 C4:G4 C5:H5 C21:IS29 G34:IS34 G33:H33 J33:IS33 C31:IS31 C30:H30 J30:IS30 G36:IS36 G35:H35 J35:IS35 C57:IS57 C56:H56 J56:IS56 C37:IS44 C45:H45 J45:IS45 H46:IS51 H69 J62:IS64 J69:IS71 G62:H62 G63 G64:H64 C73:H73 J73:IS73 C78:H78 J78:IS78 C79:IS89 C92:IS92 C90:H91 J90:IS91 C95:IS95 C93:H94 J93:IS94 D166 H144 J144:IS144 H143:IS143 H142 J142:IS142 H152:IS163 H150:H151 J150:IS151 D96:IS103 A104:IS131 H172:IS178 J169:IS171 H181:IS188 J179:IS180">
+    <cfRule type="cellIs" dxfId="161" priority="224" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="225" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="153" priority="224" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="230" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="231" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="151" priority="226" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="232" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="233" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H3 H5:H61 H63:H68 H71:H165 H169:H175 H178:H1048576">
-    <cfRule type="cellIs" dxfId="149" priority="104" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:H3 H5:H62 H64:H69 H72:H168 H172:H178 H181:H1048576">
+    <cfRule type="cellIs" dxfId="155" priority="110" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E15 E16:G19">
+  <conditionalFormatting sqref="E13:E16 E17:G20">
+    <cfRule type="cellIs" dxfId="154" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="152" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="81" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G51">
+    <cfRule type="cellIs" dxfId="150" priority="78" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="79" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58:F64">
     <cfRule type="cellIs" dxfId="148" priority="76" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -10511,47 +10779,47 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="146" priority="74" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G65:G69">
+    <cfRule type="cellIs" dxfId="146" priority="72" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="73" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G50">
-    <cfRule type="cellIs" dxfId="144" priority="72" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F65:F69 F72">
+    <cfRule type="cellIs" dxfId="144" priority="70" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="71" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F63">
-    <cfRule type="cellIs" dxfId="142" priority="70" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B132:C137">
+    <cfRule type="cellIs" dxfId="142" priority="66" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="67" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G68">
-    <cfRule type="cellIs" dxfId="140" priority="66" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G135:G136 F134:G134">
+    <cfRule type="cellIs" dxfId="140" priority="64" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="65" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:F68 F71">
-    <cfRule type="cellIs" dxfId="138" priority="64" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F135">
+    <cfRule type="cellIs" dxfId="138" priority="62" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="63" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131:C136">
+  <conditionalFormatting sqref="F136">
     <cfRule type="cellIs" dxfId="136" priority="60" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -10559,7 +10827,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G134:G135 F133:G133">
+  <conditionalFormatting sqref="D138:G139 D142:D144 D140:F141">
     <cfRule type="cellIs" dxfId="134" priority="58" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -10567,79 +10835,79 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="132" priority="56" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E160:F161">
+    <cfRule type="cellIs" dxfId="132" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="130" priority="54" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E142:G144">
+    <cfRule type="cellIs" dxfId="130" priority="56" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="57" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137:G138 D140:D142 D139:F139">
-    <cfRule type="cellIs" dxfId="128" priority="52" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G140:G141">
+    <cfRule type="cellIs" dxfId="128" priority="54" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="55" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158:F159">
-    <cfRule type="cellIs" dxfId="126" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F162:F163">
+    <cfRule type="cellIs" dxfId="126" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140:G142">
-    <cfRule type="cellIs" dxfId="124" priority="50" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B165:C166">
+    <cfRule type="cellIs" dxfId="124" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G139">
-    <cfRule type="cellIs" dxfId="122" priority="48" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G165">
+    <cfRule type="cellIs" dxfId="122" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160:F161">
-    <cfRule type="cellIs" dxfId="120" priority="44" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D167:F167 D168:D171">
+    <cfRule type="cellIs" dxfId="120" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:C164">
-    <cfRule type="cellIs" dxfId="118" priority="42" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E169:G171">
+    <cfRule type="cellIs" dxfId="118" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G163">
-    <cfRule type="cellIs" dxfId="116" priority="40" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G167">
+    <cfRule type="cellIs" dxfId="116" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D166:D168 D165:F165">
+  <conditionalFormatting sqref="D177:G178 D181:G188 D179:F180">
     <cfRule type="cellIs" dxfId="114" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -10647,31 +10915,33 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E166:G168">
-    <cfRule type="cellIs" dxfId="112" priority="34" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="112" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G165">
-    <cfRule type="cellIs" dxfId="110" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D174:G175 D178:G185 D176:F177">
-    <cfRule type="cellIs" dxfId="108" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="110" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="109" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="107" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70 G71:H71">
     <cfRule type="cellIs" dxfId="106" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -10679,12 +10949,12 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="F70:F71">
     <cfRule type="cellIs" dxfId="103" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -10692,54 +10962,54 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="101" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G69 G70:H70">
-    <cfRule type="cellIs" dxfId="100" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="101" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="98" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="15" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:F70">
-    <cfRule type="cellIs" dxfId="97" priority="12" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E166:F166">
+    <cfRule type="cellIs" dxfId="98" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="95" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H171 H170:I170 H169">
+    <cfRule type="cellIs" dxfId="96" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="93" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H169:H171">
+    <cfRule type="cellIs" dxfId="94" priority="10" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164:G164">
-    <cfRule type="cellIs" dxfId="92" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G179:H180">
+    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H168 H167:I167 H166">
+  <conditionalFormatting sqref="H179:H180">
+    <cfRule type="cellIs" dxfId="91" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G166">
     <cfRule type="cellIs" dxfId="90" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -10747,49 +11017,47 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H166:H168">
-    <cfRule type="cellIs" dxfId="88" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"B"</formula>
+  <conditionalFormatting sqref="E168:F168">
+    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176:H177">
-    <cfRule type="cellIs" dxfId="87" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G168">
+    <cfRule type="cellIs" dxfId="86" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H176:H177">
-    <cfRule type="cellIs" dxfId="85" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-1047"/>
-    <hyperlink ref="I32" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1049"/>
-    <hyperlink ref="I29" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-1050"/>
-    <hyperlink ref="I34" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-1050"/>
-    <hyperlink ref="I55" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-1050"/>
-    <hyperlink ref="I44" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-1051"/>
-    <hyperlink ref="I61" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-1051"/>
-    <hyperlink ref="I68" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-1051"/>
-    <hyperlink ref="I63" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-1052"/>
-    <hyperlink ref="I70" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-1052"/>
-    <hyperlink ref="I72" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-1053"/>
-    <hyperlink ref="I77" r:id="rId12" display="http://192.168.199.122:8880/browse/BG-1054"/>
-    <hyperlink ref="I89" r:id="rId13" display="http://192.168.199.122:8880/browse/BG-1055"/>
-    <hyperlink ref="I90" r:id="rId14" display="http://192.168.199.122:8880/browse/BG-1055"/>
-    <hyperlink ref="I92" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-1056"/>
-    <hyperlink ref="I93" r:id="rId16" display="http://192.168.199.122:8880/browse/BG-1056"/>
-    <hyperlink ref="I142" r:id="rId17" display="http://192.168.199.122:8880/browse/BG-1058"/>
-    <hyperlink ref="I140" r:id="rId18" display="http://192.168.199.122:8880/browse/BG-1059"/>
-    <hyperlink ref="I148" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-1060"/>
-    <hyperlink ref="I149" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-1060"/>
-    <hyperlink ref="I168" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1058"/>
-    <hyperlink ref="I166" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-1059"/>
-    <hyperlink ref="I176" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-1060"/>
-    <hyperlink ref="I177" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-1060"/>
+    <hyperlink ref="I33" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-1049"/>
+    <hyperlink ref="I30" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-1050"/>
+    <hyperlink ref="I35" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-1050"/>
+    <hyperlink ref="I56" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-1050"/>
+    <hyperlink ref="I45" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-1051"/>
+    <hyperlink ref="I62" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-1051"/>
+    <hyperlink ref="I69" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-1051"/>
+    <hyperlink ref="I64" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-1052"/>
+    <hyperlink ref="I71" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-1052"/>
+    <hyperlink ref="I73" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-1053"/>
+    <hyperlink ref="I78" r:id="rId12" display="http://192.168.199.122:8880/browse/BG-1054"/>
+    <hyperlink ref="I90" r:id="rId13" display="http://192.168.199.122:8880/browse/BG-1055"/>
+    <hyperlink ref="I91" r:id="rId14" display="http://192.168.199.122:8880/browse/BG-1055"/>
+    <hyperlink ref="I93" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-1056"/>
+    <hyperlink ref="I94" r:id="rId16" display="http://192.168.199.122:8880/browse/BG-1056"/>
+    <hyperlink ref="I144" r:id="rId17" display="http://192.168.199.122:8880/browse/BG-1058"/>
+    <hyperlink ref="I142" r:id="rId18" display="http://192.168.199.122:8880/browse/BG-1059"/>
+    <hyperlink ref="I150" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-1060"/>
+    <hyperlink ref="I151" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-1060"/>
+    <hyperlink ref="I171" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1058"/>
+    <hyperlink ref="I169" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-1059"/>
+    <hyperlink ref="I179" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-1060"/>
+    <hyperlink ref="I180" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-1060"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId25"/>
@@ -10800,11 +11068,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="H137:I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10829,9 +11097,9 @@
       <c r="C1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -10867,7 +11135,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>65</v>
@@ -10876,13 +11144,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>354</v>
-      </c>
       <c r="H3" s="48" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -10893,10 +11161,10 @@
         <v>68</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.35">
@@ -10904,36 +11172,36 @@
         <v>3</v>
       </c>
       <c r="E5" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>357</v>
-      </c>
       <c r="H5" s="48" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>358</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>359</v>
       </c>
       <c r="D7" s="48">
         <v>1</v>
       </c>
       <c r="E7" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>361</v>
-      </c>
       <c r="H7" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -10950,7 +11218,7 @@
         <v>82</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -10958,10 +11226,10 @@
         <v>77</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -10972,7 +11240,7 @@
         <v>80</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -10983,7 +11251,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -11000,10 +11268,10 @@
         <v>85</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="I12" s="71" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -11012,7 +11280,7 @@
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -11021,7 +11289,7 @@
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -11029,10 +11297,10 @@
         <v>88</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.35">
@@ -11040,24 +11308,24 @@
         <v>89</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F17" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -11065,13 +11333,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>369</v>
-      </c>
       <c r="H18" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
@@ -11079,19 +11347,19 @@
         <v>5</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -11099,15 +11367,15 @@
         <v>111</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E21" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>76</v>
@@ -11116,7 +11384,7 @@
         <v>120</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
@@ -11124,10 +11392,10 @@
         <v>116</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
@@ -11135,10 +11403,10 @@
         <v>79</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
@@ -11149,7 +11417,7 @@
         <v>80</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
@@ -11163,7 +11431,7 @@
         <v>130</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
@@ -11174,7 +11442,7 @@
         <v>131</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
@@ -11185,7 +11453,7 @@
         <v>133</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
@@ -11193,10 +11461,10 @@
         <v>134</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -11204,126 +11472,126 @@
         <v>6</v>
       </c>
       <c r="E29" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>376</v>
-      </c>
       <c r="G29" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F30" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E31" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="F31" s="39" t="s">
-        <v>381</v>
-      </c>
       <c r="G31" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F32" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E33" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="F33" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>385</v>
-      </c>
       <c r="G33" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F34" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H34" s="70" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F35" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F36" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E37" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="G37" s="39" t="s">
-        <v>394</v>
-      </c>
       <c r="H37" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E38" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="G38" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="G38" s="39" t="s">
-        <v>396</v>
-      </c>
       <c r="H38" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E39" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G39" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="G39" s="39" t="s">
-        <v>398</v>
-      </c>
       <c r="H39" s="48" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
@@ -11340,65 +11608,65 @@
         <v>101</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F41" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I41" s="71" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B42" s="56"/>
       <c r="D42" s="56"/>
       <c r="F42" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H42" s="70" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I42" s="71" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F43" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H43" s="70" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I43" s="71" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F44" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H44" s="70" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I44" s="71" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
@@ -11409,10 +11677,10 @@
         <v>153</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="I45" s="71" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.35">
@@ -11423,7 +11691,7 @@
         <v>80</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
@@ -11431,7 +11699,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>76</v>
@@ -11440,32 +11708,32 @@
         <v>101</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F48" s="39" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>158</v>
       </c>
       <c r="H48" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="I48" s="71" t="s">
         <v>680</v>
-      </c>
-      <c r="I48" s="71" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F49" s="39" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>159</v>
       </c>
       <c r="H49" s="48" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
@@ -11473,10 +11741,10 @@
         <v>116</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H50" s="48" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
@@ -11487,7 +11755,7 @@
         <v>162</v>
       </c>
       <c r="H51" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
@@ -11498,7 +11766,7 @@
         <v>161</v>
       </c>
       <c r="H52" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
@@ -11506,13 +11774,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="G53" s="39" t="s">
-        <v>410</v>
-      </c>
       <c r="H53" s="48" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
@@ -11520,16 +11788,16 @@
         <v>10</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H54" s="48" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
@@ -11539,10 +11807,10 @@
         <v>116</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H55" s="56" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
@@ -11555,10 +11823,10 @@
         <v>153</v>
       </c>
       <c r="H56" s="70" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="I56" s="71" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
@@ -11571,33 +11839,33 @@
         <v>80</v>
       </c>
       <c r="H57" s="56" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="56"/>
       <c r="D58" s="56"/>
       <c r="E58" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="G58" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="G58" s="39" t="s">
-        <v>442</v>
-      </c>
       <c r="H58" s="56" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B59" s="56"/>
       <c r="D59" s="56"/>
       <c r="E59" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="G59" s="39" t="s">
-        <v>444</v>
-      </c>
       <c r="H59" s="56" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
@@ -11606,71 +11874,74 @@
         <v>11</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G60" s="39" t="s">
         <v>166</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="56"/>
       <c r="D61" s="56"/>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="G61" s="72" t="s">
         <v>139</v>
       </c>
       <c r="H61" s="56" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="I61" s="71" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="56"/>
       <c r="D62" s="56"/>
-      <c r="F62" s="39" t="s">
+      <c r="E62" s="72"/>
+      <c r="F62" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="G62" s="72" t="s">
         <v>170</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="56"/>
       <c r="D63" s="56"/>
-      <c r="F63" s="39" t="s">
+      <c r="E63" s="72"/>
+      <c r="F63" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="G63" s="72" t="s">
         <v>171</v>
       </c>
       <c r="H63" s="56" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="56"/>
       <c r="D64" s="56"/>
-      <c r="F64" s="39" t="s">
+      <c r="E64" s="72"/>
+      <c r="F64" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G64" s="72" t="s">
         <v>171</v>
       </c>
       <c r="H64" s="56" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
@@ -11683,129 +11954,129 @@
         <v>173</v>
       </c>
       <c r="H65" s="56" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
       <c r="B66" s="56"/>
       <c r="D66" s="56"/>
       <c r="E66" s="39" t="s">
         <v>174</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>570</v>
+        <v>444</v>
+      </c>
+      <c r="G66" s="79" t="s">
+        <v>747</v>
       </c>
       <c r="H66" s="56" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
       <c r="B67" s="56"/>
       <c r="D67" s="56"/>
       <c r="F67" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>571</v>
+        <v>445</v>
+      </c>
+      <c r="G67" s="79" t="s">
+        <v>748</v>
       </c>
       <c r="H67" s="56" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="56"/>
       <c r="D68" s="56"/>
       <c r="E68" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="F68" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="F68" s="39" t="s">
-        <v>448</v>
-      </c>
       <c r="G68" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H68" s="56" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="56"/>
       <c r="D69" s="56"/>
       <c r="F69" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H69" s="56" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="56"/>
       <c r="D70" s="56"/>
       <c r="E70" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="F70" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="F70" s="39" t="s">
-        <v>453</v>
-      </c>
       <c r="G70" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H70" s="56" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="56"/>
       <c r="D71" s="56"/>
       <c r="F71" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>214</v>
       </c>
       <c r="H71" s="56" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="69"/>
       <c r="D72" s="69"/>
       <c r="E72" s="39" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H72" s="69" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="I72" s="71" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="69"/>
       <c r="D73" s="69"/>
       <c r="F73" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H73" s="69" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="I73" s="71" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
@@ -11820,7 +12091,7 @@
         <v>178</v>
       </c>
       <c r="H74" s="56" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
@@ -11830,10 +12101,10 @@
         <v>179</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H75" s="56" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
@@ -11843,47 +12114,47 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D77" s="48">
         <v>1</v>
       </c>
       <c r="E77" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="F77" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="F77" s="39" t="s">
-        <v>414</v>
-      </c>
       <c r="G77" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H77" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F78" s="39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H78" s="48" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F79" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="G79" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="G79" s="39" t="s">
-        <v>419</v>
-      </c>
       <c r="H79" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.35">
@@ -11891,49 +12162,49 @@
         <v>2</v>
       </c>
       <c r="E80" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="F80" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="F80" s="39" t="s">
-        <v>421</v>
-      </c>
       <c r="G80" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F81" s="39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H81" s="48" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F82" s="39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H82" s="48" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F83" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H83" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
@@ -11941,7 +12212,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F84" s="39" t="s">
         <v>76</v>
@@ -11950,7 +12221,7 @@
         <v>101</v>
       </c>
       <c r="H84" s="48" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
@@ -11958,10 +12229,10 @@
         <v>116</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
@@ -11972,10 +12243,10 @@
         <v>162</v>
       </c>
       <c r="H86" s="48" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
@@ -11986,21 +12257,21 @@
         <v>161</v>
       </c>
       <c r="H87" s="70" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I87" s="71" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="E88" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G88" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="G88" s="39" t="s">
-        <v>431</v>
-      </c>
       <c r="H88" s="48" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.35">
@@ -12008,7 +12279,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F89" s="39" t="s">
         <v>76</v>
@@ -12017,7 +12288,7 @@
         <v>101</v>
       </c>
       <c r="H89" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.35">
@@ -12025,10 +12296,10 @@
         <v>116</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.35">
@@ -12039,10 +12310,10 @@
         <v>162</v>
       </c>
       <c r="H91" s="70" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I91" s="71" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.35">
@@ -12053,55 +12324,55 @@
         <v>161</v>
       </c>
       <c r="H92" s="70" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I92" s="71" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E93" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="G93" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="G93" s="39" t="s">
-        <v>435</v>
-      </c>
       <c r="H93" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B95" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D95" s="48">
         <v>1</v>
       </c>
       <c r="E95" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="F95" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="F95" s="39" t="s">
-        <v>461</v>
-      </c>
       <c r="G95" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H95" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F96" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="G96" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="G96" s="39" t="s">
-        <v>463</v>
-      </c>
       <c r="H96" s="48" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="66" x14ac:dyDescent="0.35">
@@ -12109,94 +12380,94 @@
         <v>2</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F97" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="G97" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="G97" s="39" t="s">
-        <v>489</v>
-      </c>
       <c r="H97" s="70" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="66" x14ac:dyDescent="0.35">
       <c r="F98" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="G98" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="G98" s="39" t="s">
-        <v>490</v>
-      </c>
       <c r="H98" s="70" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="66" x14ac:dyDescent="0.35">
       <c r="F99" s="39" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H99" s="70" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D101" s="56">
         <v>1</v>
       </c>
       <c r="E101" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="F101" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="F101" s="39" t="s">
-        <v>469</v>
-      </c>
       <c r="G101" s="39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F102" s="39" t="s">
-        <v>470</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="F102" s="79" t="s">
+        <v>751</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H102" s="70" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F103" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="G103" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="G103" s="39" t="s">
-        <v>474</v>
-      </c>
       <c r="H103" s="70" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F104" s="39" t="s">
-        <v>472</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="F104" s="79" t="s">
+        <v>752</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H104" s="70" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="66" x14ac:dyDescent="0.35">
@@ -12204,94 +12475,94 @@
         <v>2</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H105" s="48" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="66" x14ac:dyDescent="0.35">
       <c r="F106" s="39" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H106" s="48" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="66" x14ac:dyDescent="0.35">
       <c r="F107" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H107" s="48" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D109" s="48">
         <v>1</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G109" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H109" s="48" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F110" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H110" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="33" x14ac:dyDescent="0.35">
       <c r="F111" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G111" s="39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F112" s="39" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H112" s="48" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12300,42 +12571,42 @@
         <v>2</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G113" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H113" s="56" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" s="56"/>
       <c r="D114" s="56"/>
       <c r="F114" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H114" s="56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B115" s="56"/>
       <c r="D115" s="56"/>
       <c r="F115" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H115" s="56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12344,60 +12615,60 @@
         <v>3</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F116" s="39" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H116" s="56" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B117" s="56"/>
       <c r="D117" s="56"/>
       <c r="F117" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H117" s="56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B118" s="56"/>
       <c r="D118" s="56"/>
       <c r="F118" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H118" s="56" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B119" s="56"/>
       <c r="D119" s="56">
         <v>4</v>
       </c>
       <c r="E119" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="G119" s="39" t="s">
-        <v>600</v>
+        <v>408</v>
+      </c>
+      <c r="G119" s="79" t="s">
+        <v>749</v>
       </c>
       <c r="H119" s="56" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="I119" s="71" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.35">
@@ -12406,13 +12677,13 @@
         <v>5</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F120" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="G120" s="39" t="s">
         <v>518</v>
-      </c>
-      <c r="G120" s="39" t="s">
-        <v>521</v>
       </c>
       <c r="H120" s="56"/>
     </row>
@@ -12420,10 +12691,10 @@
       <c r="B121" s="56"/>
       <c r="D121" s="56"/>
       <c r="F121" s="39" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G121" s="39" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H121" s="56"/>
     </row>
@@ -12433,29 +12704,29 @@
         <v>6</v>
       </c>
       <c r="E122" s="39" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G122" s="39" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="H122" s="70" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B123" s="70"/>
       <c r="D123" s="70"/>
       <c r="F123" s="39" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="H123" s="70" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.35">
@@ -12464,13 +12735,13 @@
         <v>7</v>
       </c>
       <c r="E124" s="39" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H124" s="56" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.35">
@@ -12480,64 +12751,64 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B126" s="56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D126" s="56">
         <v>1</v>
       </c>
       <c r="E126" s="39" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F126" s="39" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B127" s="56"/>
       <c r="D127" s="56"/>
       <c r="F127" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G127" s="39" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H127" s="56" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B128" s="56"/>
       <c r="D128" s="56"/>
       <c r="F128" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H128" s="56" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B129" s="56"/>
       <c r="D129" s="56"/>
       <c r="F129" s="39" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G129" s="39" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H129" s="56" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12546,42 +12817,42 @@
         <v>2</v>
       </c>
       <c r="E130" s="39" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F130" s="39" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G130" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H130" s="56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B131" s="56"/>
       <c r="D131" s="56"/>
       <c r="F131" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G131" s="39" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H131" s="56" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B132" s="56"/>
       <c r="D132" s="56"/>
       <c r="F132" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G132" s="39" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H132" s="56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12590,529 +12861,542 @@
         <v>3</v>
       </c>
       <c r="E133" s="39" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F133" s="39" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G133" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H133" s="56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B134" s="56"/>
       <c r="D134" s="56"/>
       <c r="F134" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G134" s="39" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H134" s="56" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B135" s="56"/>
       <c r="D135" s="56"/>
       <c r="F135" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G135" s="39" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H135" s="56" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B136" s="56"/>
       <c r="D136" s="56">
         <v>4</v>
       </c>
       <c r="E136" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="G136" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="H136" s="70" t="s">
-        <v>724</v>
-      </c>
-      <c r="I136" s="71" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B137" s="56"/>
-      <c r="D137" s="56">
-        <v>5</v>
-      </c>
-      <c r="E137" s="39" t="s">
-        <v>517</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="F136" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="G136" s="79" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="B137" s="73"/>
+      <c r="D137" s="73"/>
       <c r="F137" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="G137" s="39" t="s">
-        <v>535</v>
-      </c>
-      <c r="H137" s="56" t="s">
-        <v>674</v>
+        <v>754</v>
+      </c>
+      <c r="G137" s="79" t="s">
+        <v>750</v>
+      </c>
+      <c r="H137" s="70" t="s">
+        <v>717</v>
+      </c>
+      <c r="I137" s="71" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B138" s="56"/>
-      <c r="D138" s="56"/>
+      <c r="D138" s="56">
+        <v>5</v>
+      </c>
+      <c r="E138" s="39" t="s">
+        <v>514</v>
+      </c>
       <c r="F138" s="39" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G138" s="39" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H138" s="56" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B139" s="70"/>
-      <c r="D139" s="70">
-        <v>6</v>
-      </c>
-      <c r="E139" s="39" t="s">
-        <v>727</v>
-      </c>
+      <c r="B139" s="56"/>
+      <c r="D139" s="56"/>
       <c r="F139" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="G139" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="H139" s="56" t="s">
         <v>732</v>
-      </c>
-      <c r="G139" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="H139" s="70" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B140" s="70"/>
-      <c r="D140" s="70"/>
+      <c r="D140" s="70">
+        <v>6</v>
+      </c>
+      <c r="E140" s="39" t="s">
+        <v>720</v>
+      </c>
       <c r="F140" s="39" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="G140" s="39" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="H140" s="70" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B141" s="56"/>
-      <c r="D141" s="56">
+      <c r="B141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="F141" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="G141" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="H141" s="70" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B142" s="56"/>
+      <c r="D142" s="56">
         <v>7</v>
       </c>
-      <c r="E141" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="G141" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="H141" s="56" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="B143" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="C143" s="39" t="s">
-        <v>582</v>
-      </c>
-      <c r="D143" s="48">
+      <c r="E142" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="G142" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="H142" s="56" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="B144" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="C144" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="D144" s="48">
         <v>1</v>
       </c>
-      <c r="E143" s="39" t="s">
-        <v>575</v>
-      </c>
-      <c r="G143" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="H143" s="48" t="s">
-        <v>668</v>
-      </c>
-      <c r="I143" s="71" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B144" s="69"/>
-      <c r="D144" s="69">
+      <c r="E144" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="G144" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="I144" s="71" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B145" s="69"/>
+      <c r="D145" s="69">
         <v>2</v>
       </c>
-      <c r="E144" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="F144" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="G144" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="H144" s="69" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E145" s="39" t="s">
+        <v>568</v>
+      </c>
       <c r="F145" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G145" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="H145" s="48" t="s">
-        <v>674</v>
+        <v>488</v>
+      </c>
+      <c r="H145" s="69" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F146" s="39" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G146" s="39" t="s">
-        <v>576</v>
+        <v>489</v>
       </c>
       <c r="H146" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F147" s="39" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G147" s="39" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H147" s="48" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B148" s="56"/>
-      <c r="D148" s="56">
+      <c r="F148" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="G148" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="H148" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B149" s="56"/>
+      <c r="D149" s="56">
         <v>3</v>
       </c>
-      <c r="E148" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="G148" s="39" t="s">
-        <v>500</v>
-      </c>
-      <c r="H148" s="56" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="D149" s="48">
+      <c r="E149" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="G149" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="H149" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="D150" s="48">
         <v>4</v>
       </c>
-      <c r="E149" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="F149" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="G149" s="39" t="s">
-        <v>578</v>
-      </c>
-      <c r="H149" s="48" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E150" s="39" t="s">
+        <v>490</v>
+      </c>
       <c r="F150" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G150" s="39" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H150" s="48" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F151" s="39" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G151" s="39" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="H151" s="48" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F152" s="39" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G152" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="H152" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F153" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="G153" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="H153" s="48" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="D154" s="48">
+        <v>5</v>
+      </c>
+      <c r="E154" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="F154" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="G154" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="H154" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D155" s="48">
+        <v>6</v>
+      </c>
+      <c r="E155" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="G155" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="H152" s="48" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="D153" s="48">
-        <v>5</v>
-      </c>
-      <c r="E153" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="F153" s="39" t="s">
-        <v>580</v>
-      </c>
-      <c r="G153" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="H153" s="48" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D154" s="48">
-        <v>6</v>
-      </c>
-      <c r="E154" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="G154" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="H154" s="48" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="B156" s="69" t="s">
-        <v>459</v>
-      </c>
-      <c r="C156" s="39" t="s">
-        <v>583</v>
-      </c>
-      <c r="D156" s="69">
+      <c r="H155" s="48" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="B157" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="C157" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="D157" s="69">
         <v>1</v>
       </c>
-      <c r="E156" s="39" t="s">
-        <v>575</v>
-      </c>
-      <c r="G156" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="H156" s="70" t="s">
-        <v>668</v>
-      </c>
-      <c r="I156" s="71" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B157" s="69"/>
-      <c r="D157" s="69">
-        <v>2</v>
-      </c>
       <c r="E157" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="F157" s="39" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="H157" s="48" t="s">
-        <v>670</v>
+        <v>567</v>
+      </c>
+      <c r="H157" s="70" t="s">
+        <v>661</v>
+      </c>
+      <c r="I157" s="71" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B158" s="69"/>
-      <c r="D158" s="69"/>
+      <c r="D158" s="69">
+        <v>2</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>568</v>
+      </c>
       <c r="F158" s="39" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G158" s="39" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="H158" s="48" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B159" s="69"/>
       <c r="D159" s="69"/>
       <c r="F159" s="39" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H159" s="48" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B160" s="69"/>
       <c r="D160" s="69"/>
       <c r="F160" s="39" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G160" s="39" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H160" s="48" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B161" s="69"/>
-      <c r="D161" s="69">
-        <v>3</v>
-      </c>
-      <c r="E161" s="39" t="s">
-        <v>592</v>
+      <c r="D161" s="69"/>
+      <c r="F161" s="39" t="s">
+        <v>584</v>
       </c>
       <c r="G161" s="39" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H161" s="48" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B162" s="69"/>
       <c r="D162" s="69">
+        <v>3</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="G162" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="H162" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="B163" s="69"/>
+      <c r="D163" s="69">
         <v>4</v>
       </c>
-      <c r="E162" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="F162" s="39" t="s">
-        <v>584</v>
-      </c>
-      <c r="G162" s="39" t="s">
-        <v>594</v>
-      </c>
-      <c r="H162" s="48" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B163" s="69"/>
-      <c r="D163" s="69"/>
+      <c r="E163" s="39" t="s">
+        <v>490</v>
+      </c>
       <c r="F163" s="39" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G163" s="39" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B164" s="69"/>
       <c r="D164" s="69"/>
       <c r="F164" s="39" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G164" s="39" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H164" s="48" t="s">
-        <v>707</v>
+        <v>663</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B165" s="69"/>
       <c r="D165" s="69"/>
       <c r="F165" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="G165" s="39" t="s">
         <v>590</v>
       </c>
-      <c r="G165" s="39" t="s">
-        <v>597</v>
-      </c>
       <c r="H165" s="48" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" ht="33" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B166" s="69"/>
-      <c r="D166" s="69">
-        <v>5</v>
-      </c>
-      <c r="E166" s="39" t="s">
-        <v>496</v>
-      </c>
+      <c r="D166" s="69"/>
       <c r="F166" s="39" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G166" s="39" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H166" s="48" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B167" s="69"/>
       <c r="D167" s="69">
+        <v>5</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="F167" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="G167" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="H167" s="48" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B168" s="69"/>
+      <c r="D168" s="69">
         <v>6</v>
       </c>
-      <c r="E167" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="G167" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="H167" s="48" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B169" s="48" t="s">
+      <c r="E168" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="G168" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="H168" s="48" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B170" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="C170" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="D170" s="48">
+        <v>1</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="F170" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="G170" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="H170" s="48" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F171" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="G171" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="H171" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="I171" s="71" t="s">
         <v>741</v>
-      </c>
-      <c r="C169" s="39" t="s">
-        <v>740</v>
-      </c>
-      <c r="D169" s="48">
-        <v>1</v>
-      </c>
-      <c r="E169" s="39" t="s">
-        <v>742</v>
-      </c>
-      <c r="F169" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="G169" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="H169" s="48" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F170" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="G170" s="39" t="s">
-        <v>746</v>
-      </c>
-      <c r="H170" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="I170" s="71" t="s">
-        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -13120,7 +13404,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 H3:IS4 C7:F7 C8:D17 H7:IS11 C19:D28 C32:F32 H32:IS32 C40:D52 C79:E79 C83:F83 C84:G87 H83:IS85 C54:E57 H57:IS57 C61:D68 C60:F60 H60:IS60 G61:G67 E61 F61:F64 E63:E66 E68 F66:F67 C71:D75 H74:IS75 A126:A141 H126:IS135 C97:E99 C105:E107 E20:IS28 H40:IS40 A1:B125 A143:E143 A168:B1048576 A156:A167 H5 J5:IS5 H13:IS17 H12 J12:IS12 J19:IS19 H46:IS47 H41 H45 J41:IS45 H49:IS52 H48 J48:IS48 H86 J86:IS87 C91:G92 J91:IS92 J56:IS56 H62:IS68 H61 J61:IS61 J72:IS73 J143:IS143 J156:IS156 J119:IS119 H137:IS141 J136:IS136 C6:IS6 C18:IS18 C29:IS31 C80:IS82 G79:IS79 C53:IS53 G54:IS55 F71:IS71 C58:IS59 C69:IS70 C76:IS78 G105:IS107 C88:IS90 C108:IS118 A144:IS155 A142:IS142 H143 H157:IS167 H19 C33:IS39 C93:IS96 G72:H73 G97:IS99 C100:IS104 C120:IS125 C119:H119 C168:IS169 C171:IS65285 C170:H170 J170:IS170">
+  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 H3:IS4 C7:F7 C8:D17 H7:IS11 C19:D28 C32:F32 H32:IS32 C40:D52 C79:E79 C83:F83 C84:G87 H83:IS85 C54:E57 H57:IS57 C61:D68 C60:F60 H60:IS60 G61:G67 E61 F61:F64 E63:E66 E68 F66:F67 C71:D75 H74:IS75 A126:A142 H126:IS135 C97:E99 C105:E107 E20:IS28 H40:IS40 A144:E144 A169:B1048576 A157:A168 H5 J5:IS5 H13:IS17 H12 J12:IS12 J19:IS19 H46:IS47 H41 H45 J41:IS45 H49:IS52 H48 J48:IS48 H86 J86:IS87 C91:G92 J91:IS92 J56:IS56 H62:IS68 H61 J61:IS61 J72:IS73 J144:IS144 J157:IS157 J119:IS119 H138:IS142 J136:IS137 C6:IS6 C18:IS18 C29:IS31 C80:IS82 G79:IS79 C53:IS53 G54:IS55 F71:IS71 C58:IS59 C69:IS70 C76:IS78 G105:IS107 C88:IS90 C108:IS118 A145:IS156 A143:IS143 H144 H158:IS168 H19 C33:IS39 C93:IS96 G72:H73 G97:IS99 C100:IS104 C120:IS125 C119:H119 C169:IS170 C172:IS65286 C171:H171 J171:IS171 A1:B125">
     <cfRule type="cellIs" dxfId="84" priority="116" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13144,7 +13428,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H41 H45:H55 H88:H90 H57:H86 H93:H135 H157:H1048576 H137:H155">
+  <conditionalFormatting sqref="H1:H41 H45:H55 H88:H90 H57:H86 H158:H1048576 H138:H156 H93:H135">
     <cfRule type="cellIs" dxfId="78" priority="96" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
@@ -13269,7 +13553,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126:C141">
+  <conditionalFormatting sqref="B126:C142">
     <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13325,7 +13609,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D126:G135 D137:G138 D136:F136 D141:G141 D139:D140">
+  <conditionalFormatting sqref="D126:G135 D138:G139 D136:F137 D142:G142 D140:D141">
     <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13333,9 +13617,9 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G174:G175">
+  <conditionalFormatting sqref="G175:G176">
     <cfRule type="notContainsBlanks" dxfId="31" priority="34">
-      <formula>LEN(TRIM(G174))&gt;0</formula>
+      <formula>LEN(TRIM(G175))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:F73">
@@ -13346,7 +13630,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B157:G167 B156:E156">
+  <conditionalFormatting sqref="B158:G168 B157:E157">
     <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13354,7 +13638,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136">
+  <conditionalFormatting sqref="G136:G137">
     <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13427,7 +13711,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H156">
+  <conditionalFormatting sqref="H157">
     <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13435,12 +13719,12 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H156">
+  <conditionalFormatting sqref="H157">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E139:E140">
+  <conditionalFormatting sqref="E140:E141">
     <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13448,7 +13732,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F139:G140">
+  <conditionalFormatting sqref="F140:G141">
     <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13456,7 +13740,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
+  <conditionalFormatting sqref="H137">
     <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -13464,7 +13748,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
+  <conditionalFormatting sqref="H137">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
@@ -13487,11 +13771,11 @@
     <hyperlink ref="I61" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-1068"/>
     <hyperlink ref="I72" r:id="rId16" display="http://192.168.199.122:8880/browse/BG-1069"/>
     <hyperlink ref="I73" r:id="rId17" display="http://192.168.199.122:8880/browse/BG-1069"/>
-    <hyperlink ref="I143" r:id="rId18" display="http://192.168.199.122:8880/browse/BG-1070"/>
-    <hyperlink ref="I156" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-1070"/>
+    <hyperlink ref="I144" r:id="rId18" display="http://192.168.199.122:8880/browse/BG-1070"/>
+    <hyperlink ref="I157" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-1070"/>
     <hyperlink ref="I119" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-1071"/>
-    <hyperlink ref="I136" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1071"/>
-    <hyperlink ref="I170" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-1073"/>
+    <hyperlink ref="I137" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1071"/>
+    <hyperlink ref="I171" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-1073"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId23"/>

--- a/qa/01.测试用例/道具系统/合成&分解系统/合成&分解测试用例.xlsx
+++ b/qa/01.测试用例/道具系统/合成&分解系统/合成&分解测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="711" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="711" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="768">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -2528,14 +2528,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>没有动画</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2782,10 +2774,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2994,6 +2982,55 @@
   <si>
     <t>响应tips，屏蔽获得途径</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2544</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2547</t>
+  </si>
+  <si>
+    <t>BG-2548</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1071
+BG-2549</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2550</t>
   </si>
 </sst>
 </file>
@@ -3816,7 +3853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4007,6 +4044,12 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4015,9 +4058,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="137">
@@ -4159,7 +4199,7 @@
     <cellStyle name="好 2" xfId="79"/>
     <cellStyle name="检查单元格 2" xfId="25"/>
   </cellStyles>
-  <dxfs count="170">
+  <dxfs count="177">
     <dxf>
       <font>
         <b/>
@@ -4175,60 +4215,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -4258,6 +4244,24 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -4269,24 +4273,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -4316,6 +4302,24 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -4374,6 +4378,42 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -4403,57 +4443,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -4482,402 +4472,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -4907,96 +4501,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -5055,24 +4559,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -5120,7 +4606,39 @@
       <font>
         <b/>
         <i val="0"/>
-      </font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -5149,6 +4667,402 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -5178,6 +5092,96 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -5207,384 +5211,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -5632,6 +5258,17 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -5663,6 +5300,482 @@
         <extend val="0"/>
         <color indexed="48"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6617,10 +6730,10 @@
     </row>
     <row r="7" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -7776,9 +7889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H176" sqref="H176:I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7803,9 +7916,9 @@
       <c r="C1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -7914,14 +8027,16 @@
       <c r="A8" s="40"/>
       <c r="B8" s="73"/>
       <c r="D8" s="73"/>
-      <c r="E8" s="79" t="s">
-        <v>742</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79" t="s">
-        <v>743</v>
-      </c>
-      <c r="H8" s="73"/>
+      <c r="E8" s="77" t="s">
+        <v>739</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77" t="s">
+        <v>740</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D9" s="33">
@@ -9217,7 +9332,7 @@
         <v>206</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9231,7 +9346,7 @@
         <v>182</v>
       </c>
       <c r="H97" s="55" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9247,7 +9362,7 @@
         <v>209</v>
       </c>
       <c r="H98" s="55" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9263,7 +9378,7 @@
         <v>210</v>
       </c>
       <c r="H99" s="70" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9282,7 +9397,7 @@
         <v>212</v>
       </c>
       <c r="H100" s="70" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9298,7 +9413,7 @@
         <v>215</v>
       </c>
       <c r="H101" s="70" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9317,7 +9432,7 @@
         <v>541</v>
       </c>
       <c r="H102" s="70" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9518,7 +9633,7 @@
         <v>249</v>
       </c>
       <c r="H116" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -9529,7 +9644,7 @@
         <v>250</v>
       </c>
       <c r="H117" s="70" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -9540,7 +9655,7 @@
         <v>251</v>
       </c>
       <c r="H118" s="70" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -9557,7 +9672,7 @@
         <v>258</v>
       </c>
       <c r="H119" s="70" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -9571,7 +9686,7 @@
         <v>259</v>
       </c>
       <c r="H120" s="70" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -9585,7 +9700,7 @@
         <v>260</v>
       </c>
       <c r="H121" s="70" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9608,35 +9723,35 @@
         <v>264</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G123" s="35" t="s">
         <v>265</v>
       </c>
       <c r="H123" s="33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F124" s="35" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>265</v>
       </c>
       <c r="H124" s="70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F125" s="35" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G125" s="39" t="s">
         <v>265</v>
       </c>
       <c r="H125" s="70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9644,13 +9759,13 @@
       <c r="B126" s="55"/>
       <c r="D126" s="55"/>
       <c r="F126" s="39" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G126" s="39" t="s">
         <v>266</v>
       </c>
       <c r="H126" s="70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
@@ -9663,13 +9778,13 @@
         <v>267</v>
       </c>
       <c r="F127" s="39" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G127" s="39" t="s">
         <v>268</v>
       </c>
       <c r="H127" s="70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
@@ -9683,7 +9798,7 @@
         <v>270</v>
       </c>
       <c r="H128" s="70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
@@ -9697,7 +9812,7 @@
         <v>272</v>
       </c>
       <c r="H129" s="70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="39" customFormat="1" ht="66" x14ac:dyDescent="0.35">
@@ -9711,7 +9826,7 @@
         <v>274</v>
       </c>
       <c r="H130" s="70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9823,7 +9938,7 @@
         <v>291</v>
       </c>
       <c r="H138" s="33" t="s">
-        <v>637</v>
+        <v>756</v>
       </c>
     </row>
     <row r="139" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9833,14 +9948,14 @@
       <c r="E139" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="G139" s="79" t="s">
-        <v>744</v>
+      <c r="G139" s="77" t="s">
+        <v>741</v>
       </c>
       <c r="H139" s="69" t="s">
-        <v>638</v>
+        <v>755</v>
       </c>
       <c r="J139" s="39" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="33" x14ac:dyDescent="0.35">
@@ -9855,21 +9970,23 @@
         <v>296</v>
       </c>
       <c r="H140" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="40"/>
       <c r="B141" s="73"/>
       <c r="D141" s="73"/>
-      <c r="E141" s="79" t="s">
-        <v>745</v>
-      </c>
-      <c r="F141" s="79"/>
-      <c r="G141" s="79" t="s">
-        <v>746</v>
-      </c>
-      <c r="H141" s="73"/>
+      <c r="E141" s="77" t="s">
+        <v>742</v>
+      </c>
+      <c r="F141" s="77"/>
+      <c r="G141" s="77" t="s">
+        <v>743</v>
+      </c>
+      <c r="H141" s="73" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D142" s="55">
@@ -9886,7 +10003,7 @@
         <v>632</v>
       </c>
       <c r="I142" s="71" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
@@ -9919,7 +10036,7 @@
         <v>605</v>
       </c>
       <c r="I144" s="71" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
@@ -9944,18 +10061,21 @@
         <v>302</v>
       </c>
       <c r="H146" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E147" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G147" s="79" t="s">
-        <v>757</v>
+      <c r="G147" s="77" t="s">
+        <v>754</v>
       </c>
       <c r="H147" s="33" t="s">
-        <v>596</v>
+        <v>758</v>
+      </c>
+      <c r="I147" s="71" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -9993,13 +10113,13 @@
         <v>307</v>
       </c>
       <c r="G150" s="39" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H150" s="33" t="s">
         <v>605</v>
       </c>
       <c r="I150" s="71" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
@@ -10008,13 +10128,13 @@
         <v>308</v>
       </c>
       <c r="G151" s="39" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H151" s="33" t="s">
         <v>605</v>
       </c>
       <c r="I151" s="71" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
@@ -10029,7 +10149,7 @@
         <v>314</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -10076,7 +10196,7 @@
         <v>321</v>
       </c>
       <c r="H155" s="55" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -10090,7 +10210,7 @@
         <v>321</v>
       </c>
       <c r="H156" s="55" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -10104,7 +10224,7 @@
         <v>323</v>
       </c>
       <c r="H157" s="55" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -10118,7 +10238,7 @@
         <v>324</v>
       </c>
       <c r="H158" s="55" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -10132,7 +10252,7 @@
         <v>327</v>
       </c>
       <c r="H159" s="55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
@@ -10149,7 +10269,7 @@
         <v>330</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -10163,7 +10283,7 @@
         <v>313</v>
       </c>
       <c r="H161" s="55" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
@@ -10180,7 +10300,7 @@
         <v>311</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
@@ -10212,7 +10332,7 @@
         <v>291</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -10222,11 +10342,11 @@
       <c r="E166" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="G166" s="79" t="s">
-        <v>744</v>
+      <c r="G166" s="77" t="s">
+        <v>741</v>
       </c>
       <c r="H166" s="69" t="s">
-        <v>704</v>
+        <v>755</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="33" x14ac:dyDescent="0.35">
@@ -10241,21 +10361,23 @@
         <v>296</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="40"/>
       <c r="B168" s="73"/>
       <c r="D168" s="73"/>
-      <c r="E168" s="79" t="s">
-        <v>745</v>
-      </c>
-      <c r="F168" s="79"/>
-      <c r="G168" s="79" t="s">
-        <v>746</v>
-      </c>
-      <c r="H168" s="73"/>
+      <c r="E168" s="77" t="s">
+        <v>742</v>
+      </c>
+      <c r="F168" s="77"/>
+      <c r="G168" s="77" t="s">
+        <v>743</v>
+      </c>
+      <c r="H168" s="73" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D169" s="55">
@@ -10272,7 +10394,7 @@
         <v>594</v>
       </c>
       <c r="I169" s="71" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
@@ -10306,7 +10428,7 @@
         <v>594</v>
       </c>
       <c r="I171" s="71" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
@@ -10321,7 +10443,7 @@
         <v>300</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
@@ -10334,7 +10456,7 @@
         <v>302</v>
       </c>
       <c r="H173" s="33" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -10348,7 +10470,7 @@
         <v>333</v>
       </c>
       <c r="H174" s="55" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -10359,10 +10481,10 @@
         <v>545</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H175" s="55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
@@ -10371,11 +10493,14 @@
         <v>134</v>
       </c>
       <c r="F176" s="39"/>
-      <c r="G176" s="79" t="s">
-        <v>756</v>
-      </c>
-      <c r="H176" s="33" t="s">
-        <v>651</v>
+      <c r="G176" s="77" t="s">
+        <v>753</v>
+      </c>
+      <c r="H176" s="76" t="s">
+        <v>758</v>
+      </c>
+      <c r="I176" s="71" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="177" spans="4:9" x14ac:dyDescent="0.35">
@@ -10392,7 +10517,7 @@
         <v>304</v>
       </c>
       <c r="H177" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="178" spans="4:9" x14ac:dyDescent="0.35">
@@ -10405,7 +10530,7 @@
         <v>306</v>
       </c>
       <c r="H178" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="179" spans="4:9" x14ac:dyDescent="0.35">
@@ -10415,13 +10540,13 @@
         <v>307</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H179" s="70" t="s">
         <v>594</v>
       </c>
       <c r="I179" s="71" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="4:9" x14ac:dyDescent="0.35">
@@ -10431,13 +10556,13 @@
         <v>308</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H180" s="70" t="s">
         <v>594</v>
       </c>
       <c r="I180" s="71" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="4:9" x14ac:dyDescent="0.35">
@@ -10452,7 +10577,7 @@
         <v>314</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="182" spans="4:9" x14ac:dyDescent="0.35">
@@ -10469,7 +10594,7 @@
         <v>318</v>
       </c>
       <c r="H182" s="33" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="183" spans="4:9" x14ac:dyDescent="0.35">
@@ -10482,7 +10607,7 @@
         <v>318</v>
       </c>
       <c r="H183" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="184" spans="4:9" x14ac:dyDescent="0.35">
@@ -10495,7 +10620,7 @@
         <v>321</v>
       </c>
       <c r="H184" s="33" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="185" spans="4:9" x14ac:dyDescent="0.35">
@@ -10508,7 +10633,7 @@
         <v>321</v>
       </c>
       <c r="H185" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="186" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -10568,7 +10693,7 @@
         <v>342</v>
       </c>
       <c r="H190" s="33" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="191" spans="4:9" x14ac:dyDescent="0.35">
@@ -10579,7 +10704,7 @@
         <v>343</v>
       </c>
       <c r="H191" s="33" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="192" spans="4:9" x14ac:dyDescent="0.35">
@@ -10590,7 +10715,7 @@
         <v>344</v>
       </c>
       <c r="H192" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
@@ -10601,7 +10726,7 @@
         <v>345</v>
       </c>
       <c r="H193" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
@@ -10615,7 +10740,7 @@
         <v>348</v>
       </c>
       <c r="H194" s="33" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
@@ -10629,7 +10754,7 @@
         <v>350</v>
       </c>
       <c r="H195" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.35">
@@ -10718,319 +10843,332 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 C13:D20 H13:IS20 F33:F36 C32:E36 H65:IS68 C58:E72 A1:B95 A103 A96:C102 C46:F51 A132:A137 D134:E136 H134:IS136 C138:C144 H138:IS141 E162:E163 A138:B163 C148:D163 H148:IS149 G161:G163 A164:A166 D165:F165 C167:C188 H165:IS168 E148:G159 D172:G176 A167:B1048576 C3:IS3 G32:IS32 C52:IS55 G58:IS61 G72:IS72 D132:IS133 D137:IS137 C145:IS147 D164:IS164 C74:IS77 C189:IS65231 C6:IS12 J4:IS5 C4:G4 C5:H5 C21:IS29 G34:IS34 G33:H33 J33:IS33 C31:IS31 C30:H30 J30:IS30 G36:IS36 G35:H35 J35:IS35 C57:IS57 C56:H56 J56:IS56 C37:IS44 C45:H45 J45:IS45 H46:IS51 H69 J62:IS64 J69:IS71 G62:H62 G63 G64:H64 C73:H73 J73:IS73 C78:H78 J78:IS78 C79:IS89 C92:IS92 C90:H91 J90:IS91 C95:IS95 C93:H94 J93:IS94 D166 H144 J144:IS144 H143:IS143 H142 J142:IS142 H152:IS163 H150:H151 J150:IS151 D96:IS103 A104:IS131 H172:IS178 J169:IS171 H181:IS188 J179:IS180">
-    <cfRule type="cellIs" dxfId="161" priority="224" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 C13:D20 H13:IS20 F33:F36 C32:E36 H65:IS68 C58:E72 A1:B95 A103 A96:C102 C46:F51 A132:A137 D134:E136 H134:IS136 C138:C144 H138:IS141 E162:E163 A138:B163 C148:D163 H148:IS149 G161:G163 A164:A166 D165:F165 C167:C188 H165:IS168 E148:G159 D172:G176 A167:B1048576 C3:IS3 G32:IS32 C52:IS55 G58:IS61 G72:IS72 D132:IS133 D137:IS137 C145:IS146 D164:IS164 C74:IS77 C189:IS65231 J4:IS5 C4:G4 C5:H5 C21:IS29 G34:IS34 G33:H33 J33:IS33 C31:IS31 C30:H30 J30:IS30 G36:IS36 G35:H35 J35:IS35 C57:IS57 C56:H56 J56:IS56 C37:IS44 C45:H45 J45:IS45 H46:IS51 H69 J62:IS64 J69:IS71 G62:H62 G63 G64:H64 C73:H73 J73:IS73 C78:H78 J78:IS78 C79:IS89 C92:IS92 C90:H91 J90:IS91 C95:IS95 C93:H94 J93:IS94 D166 H144 J144:IS144 H143:IS143 H142 J142:IS142 H152:IS163 H150:H151 J150:IS151 D96:IS103 A104:IS131 H172:IS175 J169:IS171 H181:IS188 J179:IS180 C6:IS12 C147:H147 J147:IS147 H177:IS178 J176:IS176">
+    <cfRule type="cellIs" dxfId="176" priority="227" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="228" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="159" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="233" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="231" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="234" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="157" priority="232" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="235" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="236" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H3 H5:H62 H64:H69 H72:H168 H172:H178 H181:H1048576">
-    <cfRule type="cellIs" dxfId="155" priority="110" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:H3 H64:H69 H72:H168 H172:H175 H181:H1048576 H5:H62 H177:H178">
+    <cfRule type="cellIs" dxfId="170" priority="113" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E16 E17:G20">
-    <cfRule type="cellIs" dxfId="154" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="152" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G51">
-    <cfRule type="cellIs" dxfId="150" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:F64">
-    <cfRule type="cellIs" dxfId="148" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G69">
-    <cfRule type="cellIs" dxfId="146" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F69 F72">
-    <cfRule type="cellIs" dxfId="144" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:C137">
-    <cfRule type="cellIs" dxfId="142" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135:G136 F134:G134">
-    <cfRule type="cellIs" dxfId="140" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="138" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="cellIs" dxfId="136" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138:G139 D142:D144 D140:F141">
-    <cfRule type="cellIs" dxfId="134" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160:F161">
-    <cfRule type="cellIs" dxfId="132" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:G144">
-    <cfRule type="cellIs" dxfId="130" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G141">
-    <cfRule type="cellIs" dxfId="128" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162:F163">
-    <cfRule type="cellIs" dxfId="126" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165:C166">
-    <cfRule type="cellIs" dxfId="124" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G165">
-    <cfRule type="cellIs" dxfId="122" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:F167 D168:D171">
-    <cfRule type="cellIs" dxfId="120" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:G171">
-    <cfRule type="cellIs" dxfId="118" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167">
-    <cfRule type="cellIs" dxfId="116" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177:G178 D181:G188 D179:F180">
-    <cfRule type="cellIs" dxfId="114" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="112" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="110" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="29" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="109" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="107" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="26" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70 G71:H71">
-    <cfRule type="cellIs" dxfId="106" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="25" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="23" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F71">
-    <cfRule type="cellIs" dxfId="103" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="101" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="99" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="18" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166:F166">
-    <cfRule type="cellIs" dxfId="98" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="17" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171 H170:I170 H169">
-    <cfRule type="cellIs" dxfId="96" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="15" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:H171">
-    <cfRule type="cellIs" dxfId="94" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="13" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G179:H180">
-    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179:H180">
-    <cfRule type="cellIs" dxfId="91" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="10" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166">
-    <cfRule type="cellIs" dxfId="90" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:F168">
-    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168">
-    <cfRule type="cellIs" dxfId="86" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="4" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="5" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H176">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H176">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -11058,11 +11196,13 @@
     <hyperlink ref="I169" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-1059"/>
     <hyperlink ref="I179" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-1060"/>
     <hyperlink ref="I180" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-1060"/>
+    <hyperlink ref="I147" r:id="rId25" display="http://192.168.199.122:8880/browse/BG-2544"/>
+    <hyperlink ref="I176" r:id="rId26" display="http://192.168.199.122:8880/browse/BG-2544"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -11070,9 +11210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H137" sqref="H137:I137"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J137" sqref="J137:J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11097,9 +11237,9 @@
       <c r="C1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -11150,7 +11290,7 @@
         <v>353</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -11164,7 +11304,7 @@
         <v>354</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.35">
@@ -11178,10 +11318,10 @@
         <v>356</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
@@ -11201,7 +11341,7 @@
         <v>360</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -11218,7 +11358,7 @@
         <v>82</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -11229,7 +11369,7 @@
         <v>361</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -11240,7 +11380,7 @@
         <v>80</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -11251,7 +11391,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -11268,10 +11408,10 @@
         <v>85</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I12" s="71" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -11280,7 +11420,7 @@
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -11289,7 +11429,7 @@
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -11300,7 +11440,7 @@
         <v>362</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.35">
@@ -11314,7 +11454,7 @@
         <v>365</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -11325,7 +11465,7 @@
         <v>366</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -11339,7 +11479,7 @@
         <v>368</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
@@ -11353,13 +11493,13 @@
         <v>110</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -11370,7 +11510,7 @@
         <v>565</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
@@ -11384,7 +11524,7 @@
         <v>120</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
@@ -11395,7 +11535,7 @@
         <v>371</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
@@ -11406,7 +11546,7 @@
         <v>372</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
@@ -11417,7 +11557,7 @@
         <v>80</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
@@ -11431,7 +11571,7 @@
         <v>130</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
@@ -11442,7 +11582,7 @@
         <v>131</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
@@ -11453,7 +11593,7 @@
         <v>133</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
@@ -11464,7 +11604,7 @@
         <v>373</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="4:9" ht="33" x14ac:dyDescent="0.35">
@@ -11481,7 +11621,7 @@
         <v>377</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
@@ -11492,7 +11632,7 @@
         <v>378</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
@@ -11506,7 +11646,7 @@
         <v>382</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
@@ -11517,7 +11657,7 @@
         <v>80</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.35">
@@ -11531,7 +11671,7 @@
         <v>388</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
@@ -11542,7 +11682,7 @@
         <v>389</v>
       </c>
       <c r="H34" s="70" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -11569,7 +11709,7 @@
         <v>393</v>
       </c>
       <c r="H37" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.35">
@@ -11580,7 +11720,7 @@
         <v>395</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -11591,7 +11731,7 @@
         <v>397</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.35">
@@ -11608,7 +11748,7 @@
         <v>101</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.35">
@@ -11619,10 +11759,10 @@
         <v>402</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I41" s="71" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -11635,10 +11775,10 @@
         <v>403</v>
       </c>
       <c r="H42" s="70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I42" s="71" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.35">
@@ -11649,10 +11789,10 @@
         <v>404</v>
       </c>
       <c r="H43" s="70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I43" s="71" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -11663,10 +11803,10 @@
         <v>405</v>
       </c>
       <c r="H44" s="70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I44" s="71" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
@@ -11677,10 +11817,10 @@
         <v>153</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I45" s="71" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.35">
@@ -11691,7 +11831,7 @@
         <v>80</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
@@ -11708,32 +11848,32 @@
         <v>101</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F48" s="39" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>158</v>
       </c>
       <c r="H48" s="48" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I48" s="71" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F49" s="39" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>159</v>
       </c>
       <c r="H49" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
@@ -11744,7 +11884,7 @@
         <v>407</v>
       </c>
       <c r="H50" s="48" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
@@ -11755,7 +11895,7 @@
         <v>162</v>
       </c>
       <c r="H51" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
@@ -11766,7 +11906,7 @@
         <v>161</v>
       </c>
       <c r="H52" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
@@ -11780,7 +11920,7 @@
         <v>409</v>
       </c>
       <c r="H53" s="48" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
@@ -11797,7 +11937,7 @@
         <v>438</v>
       </c>
       <c r="H54" s="48" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
@@ -11810,7 +11950,7 @@
         <v>439</v>
       </c>
       <c r="H55" s="56" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
@@ -11823,10 +11963,10 @@
         <v>153</v>
       </c>
       <c r="H56" s="70" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I56" s="71" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
@@ -11839,7 +11979,7 @@
         <v>80</v>
       </c>
       <c r="H57" s="56" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.35">
@@ -11852,7 +11992,7 @@
         <v>441</v>
       </c>
       <c r="H58" s="56" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -11865,7 +12005,7 @@
         <v>443</v>
       </c>
       <c r="H59" s="56" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.35">
@@ -11880,7 +12020,7 @@
         <v>166</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.35">
@@ -11896,10 +12036,10 @@
         <v>139</v>
       </c>
       <c r="H61" s="56" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I61" s="71" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.35">
@@ -11913,7 +12053,7 @@
         <v>170</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.35">
@@ -11927,7 +12067,7 @@
         <v>171</v>
       </c>
       <c r="H63" s="56" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
@@ -11941,7 +12081,7 @@
         <v>171</v>
       </c>
       <c r="H64" s="56" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.35">
@@ -11954,7 +12094,7 @@
         <v>173</v>
       </c>
       <c r="H65" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
@@ -11966,11 +12106,14 @@
       <c r="F66" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="G66" s="79" t="s">
-        <v>747</v>
+      <c r="G66" s="77" t="s">
+        <v>744</v>
       </c>
       <c r="H66" s="56" t="s">
-        <v>667</v>
+        <v>761</v>
+      </c>
+      <c r="I66" s="71" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
@@ -11979,11 +12122,14 @@
       <c r="F67" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="G67" s="79" t="s">
-        <v>748</v>
+      <c r="G67" s="77" t="s">
+        <v>745</v>
       </c>
       <c r="H67" s="56" t="s">
-        <v>677</v>
+        <v>762</v>
+      </c>
+      <c r="I67" s="71" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
@@ -11999,7 +12145,7 @@
         <v>449</v>
       </c>
       <c r="H68" s="56" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
@@ -12012,7 +12158,7 @@
         <v>450</v>
       </c>
       <c r="H69" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
@@ -12028,7 +12174,7 @@
         <v>454</v>
       </c>
       <c r="H70" s="56" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
@@ -12041,7 +12187,7 @@
         <v>214</v>
       </c>
       <c r="H71" s="56" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.35">
@@ -12054,13 +12200,13 @@
         <v>452</v>
       </c>
       <c r="G72" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="H72" s="69" t="s">
         <v>691</v>
       </c>
-      <c r="H72" s="69" t="s">
-        <v>693</v>
-      </c>
       <c r="I72" s="71" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.35">
@@ -12070,13 +12216,13 @@
         <v>453</v>
       </c>
       <c r="G73" s="39" t="s">
+        <v>690</v>
+      </c>
+      <c r="H73" s="69" t="s">
+        <v>659</v>
+      </c>
+      <c r="I73" s="71" t="s">
         <v>692</v>
-      </c>
-      <c r="H73" s="69" t="s">
-        <v>661</v>
-      </c>
-      <c r="I73" s="71" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
@@ -12091,7 +12237,7 @@
         <v>178</v>
       </c>
       <c r="H74" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.35">
@@ -12104,7 +12250,7 @@
         <v>455</v>
       </c>
       <c r="H75" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
@@ -12132,7 +12278,7 @@
         <v>415</v>
       </c>
       <c r="H77" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.35">
@@ -12143,7 +12289,7 @@
         <v>416</v>
       </c>
       <c r="H78" s="48" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12154,7 +12300,7 @@
         <v>418</v>
       </c>
       <c r="H79" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.35">
@@ -12171,7 +12317,7 @@
         <v>424</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12182,7 +12328,7 @@
         <v>425</v>
       </c>
       <c r="H81" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
@@ -12193,7 +12339,7 @@
         <v>426</v>
       </c>
       <c r="H82" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
@@ -12204,7 +12350,7 @@
         <v>80</v>
       </c>
       <c r="H83" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
@@ -12221,7 +12367,7 @@
         <v>101</v>
       </c>
       <c r="H84" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
@@ -12232,7 +12378,7 @@
         <v>428</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
@@ -12243,10 +12389,10 @@
         <v>162</v>
       </c>
       <c r="H86" s="48" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
@@ -12257,10 +12403,10 @@
         <v>161</v>
       </c>
       <c r="H87" s="70" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I87" s="71" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12271,7 +12417,7 @@
         <v>430</v>
       </c>
       <c r="H88" s="48" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.35">
@@ -12288,7 +12434,7 @@
         <v>101</v>
       </c>
       <c r="H89" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.35">
@@ -12299,7 +12445,7 @@
         <v>432</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.35">
@@ -12310,10 +12456,10 @@
         <v>162</v>
       </c>
       <c r="H91" s="70" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I91" s="71" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.35">
@@ -12324,10 +12470,10 @@
         <v>161</v>
       </c>
       <c r="H92" s="70" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I92" s="71" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.35">
@@ -12338,7 +12484,7 @@
         <v>434</v>
       </c>
       <c r="H93" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.35">
@@ -12361,7 +12507,7 @@
         <v>463</v>
       </c>
       <c r="H95" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.35">
@@ -12372,10 +12518,10 @@
         <v>462</v>
       </c>
       <c r="H96" s="48" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="66" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="66" x14ac:dyDescent="0.35">
       <c r="D97" s="48">
         <v>2</v>
       </c>
@@ -12389,10 +12535,10 @@
         <v>486</v>
       </c>
       <c r="H97" s="70" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="66" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="66" x14ac:dyDescent="0.35">
       <c r="F98" s="39" t="s">
         <v>484</v>
       </c>
@@ -12400,10 +12546,10 @@
         <v>487</v>
       </c>
       <c r="H98" s="70" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="66" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="66" x14ac:dyDescent="0.35">
       <c r="F99" s="39" t="s">
         <v>485</v>
       </c>
@@ -12411,10 +12557,10 @@
         <v>487</v>
       </c>
       <c r="H99" s="70" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B101" s="56" t="s">
         <v>435</v>
       </c>
@@ -12434,21 +12580,24 @@
         <v>470</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="F102" s="79" t="s">
-        <v>751</v>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="F102" s="77" t="s">
+        <v>748</v>
       </c>
       <c r="G102" s="39" t="s">
         <v>471</v>
       </c>
       <c r="H102" s="70" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+        <v>765</v>
+      </c>
+      <c r="I102" s="71" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F103" s="39" t="s">
         <v>469</v>
       </c>
@@ -12456,21 +12605,24 @@
         <v>471</v>
       </c>
       <c r="H103" s="70" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="F104" s="79" t="s">
-        <v>752</v>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="F104" s="77" t="s">
+        <v>749</v>
       </c>
       <c r="G104" s="39" t="s">
         <v>471</v>
       </c>
       <c r="H104" s="70" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="66" x14ac:dyDescent="0.35">
+        <v>762</v>
+      </c>
+      <c r="I104" s="71" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="66" x14ac:dyDescent="0.35">
       <c r="D105" s="48">
         <v>2</v>
       </c>
@@ -12484,10 +12636,10 @@
         <v>474</v>
       </c>
       <c r="H105" s="48" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="66" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="66" x14ac:dyDescent="0.35">
       <c r="F106" s="39" t="s">
         <v>475</v>
       </c>
@@ -12495,10 +12647,10 @@
         <v>476</v>
       </c>
       <c r="H106" s="48" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="66" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="66" x14ac:dyDescent="0.35">
       <c r="F107" s="39" t="s">
         <v>477</v>
       </c>
@@ -12506,10 +12658,10 @@
         <v>478</v>
       </c>
       <c r="H107" s="48" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B109" s="48" t="s">
         <v>435</v>
       </c>
@@ -12529,10 +12681,10 @@
         <v>503</v>
       </c>
       <c r="H109" s="48" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F110" s="39" t="s">
         <v>500</v>
       </c>
@@ -12540,10 +12692,10 @@
         <v>504</v>
       </c>
       <c r="H110" s="48" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" ht="33" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F111" s="39" t="s">
         <v>501</v>
       </c>
@@ -12551,10 +12703,10 @@
         <v>505</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F112" s="39" t="s">
         <v>502</v>
       </c>
@@ -12562,7 +12714,7 @@
         <v>506</v>
       </c>
       <c r="H112" s="48" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12580,7 +12732,7 @@
         <v>503</v>
       </c>
       <c r="H113" s="56" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.35">
@@ -12593,7 +12745,7 @@
         <v>504</v>
       </c>
       <c r="H114" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12606,7 +12758,7 @@
         <v>509</v>
       </c>
       <c r="H115" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12624,7 +12776,7 @@
         <v>503</v>
       </c>
       <c r="H116" s="56" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.35">
@@ -12637,7 +12789,7 @@
         <v>512</v>
       </c>
       <c r="H117" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12650,7 +12802,7 @@
         <v>513</v>
       </c>
       <c r="H118" s="56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12661,14 +12813,14 @@
       <c r="E119" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="G119" s="79" t="s">
-        <v>749</v>
+      <c r="G119" s="77" t="s">
+        <v>746</v>
       </c>
       <c r="H119" s="56" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I119" s="71" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.35">
@@ -12704,29 +12856,29 @@
         <v>6</v>
       </c>
       <c r="E122" s="39" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G122" s="39" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H122" s="70" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B123" s="70"/>
       <c r="D123" s="70"/>
       <c r="F123" s="39" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H123" s="70" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.35">
@@ -12741,7 +12893,7 @@
         <v>520</v>
       </c>
       <c r="H124" s="56" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.35">
@@ -12769,7 +12921,7 @@
         <v>503</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.35">
@@ -12782,7 +12934,7 @@
         <v>523</v>
       </c>
       <c r="H127" s="56" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12795,7 +12947,7 @@
         <v>524</v>
       </c>
       <c r="H128" s="56" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.35">
@@ -12808,7 +12960,7 @@
         <v>506</v>
       </c>
       <c r="H129" s="56" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12826,7 +12978,7 @@
         <v>503</v>
       </c>
       <c r="H130" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.35">
@@ -12839,7 +12991,7 @@
         <v>523</v>
       </c>
       <c r="H131" s="56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="132" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12852,7 +13004,7 @@
         <v>527</v>
       </c>
       <c r="H132" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12870,7 +13022,7 @@
         <v>503</v>
       </c>
       <c r="H133" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.35">
@@ -12883,7 +13035,7 @@
         <v>530</v>
       </c>
       <c r="H134" s="56" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="135" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12896,7 +13048,7 @@
         <v>531</v>
       </c>
       <c r="H135" s="56" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -12908,26 +13060,32 @@
         <v>408</v>
       </c>
       <c r="F136" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="G136" s="79" t="s">
-        <v>755</v>
+        <v>750</v>
+      </c>
+      <c r="G136" s="77" t="s">
+        <v>752</v>
+      </c>
+      <c r="H136" s="76" t="s">
+        <v>714</v>
+      </c>
+      <c r="I136" s="71" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="B137" s="73"/>
       <c r="D137" s="73"/>
       <c r="F137" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="G137" s="79" t="s">
-        <v>750</v>
+        <v>751</v>
+      </c>
+      <c r="G137" s="77" t="s">
+        <v>747</v>
       </c>
       <c r="H137" s="70" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I137" s="71" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.35">
@@ -12945,7 +13103,7 @@
         <v>532</v>
       </c>
       <c r="H138" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.35">
@@ -12958,7 +13116,7 @@
         <v>533</v>
       </c>
       <c r="H139" s="56" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.35">
@@ -12967,29 +13125,29 @@
         <v>6</v>
       </c>
       <c r="E140" s="39" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G140" s="39" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H140" s="70" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B141" s="70"/>
       <c r="D141" s="70"/>
       <c r="F141" s="39" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G141" s="39" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H141" s="70" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.35">
@@ -13004,7 +13162,7 @@
         <v>520</v>
       </c>
       <c r="H142" s="56" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="144" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -13024,10 +13182,10 @@
         <v>567</v>
       </c>
       <c r="H144" s="48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I144" s="71" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.35">
@@ -13045,7 +13203,7 @@
         <v>488</v>
       </c>
       <c r="H145" s="69" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.35">
@@ -13056,7 +13214,7 @@
         <v>489</v>
       </c>
       <c r="H146" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.35">
@@ -13067,7 +13225,7 @@
         <v>570</v>
       </c>
       <c r="H147" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.35">
@@ -13078,7 +13236,7 @@
         <v>571</v>
       </c>
       <c r="H148" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.35">
@@ -13093,7 +13251,7 @@
         <v>497</v>
       </c>
       <c r="H149" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="150" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -13110,7 +13268,7 @@
         <v>572</v>
       </c>
       <c r="H150" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.35">
@@ -13121,7 +13279,7 @@
         <v>573</v>
       </c>
       <c r="H151" s="48" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.35">
@@ -13132,7 +13290,7 @@
         <v>491</v>
       </c>
       <c r="H152" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.35">
@@ -13143,7 +13301,7 @@
         <v>492</v>
       </c>
       <c r="H153" s="48" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -13160,7 +13318,7 @@
         <v>575</v>
       </c>
       <c r="H154" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.35">
@@ -13174,7 +13332,7 @@
         <v>495</v>
       </c>
       <c r="H155" s="48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="157" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -13194,10 +13352,10 @@
         <v>567</v>
       </c>
       <c r="H157" s="70" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I157" s="71" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.35">
@@ -13215,7 +13373,7 @@
         <v>579</v>
       </c>
       <c r="H158" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.35">
@@ -13228,7 +13386,7 @@
         <v>581</v>
       </c>
       <c r="H159" s="48" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.35">
@@ -13241,7 +13399,7 @@
         <v>583</v>
       </c>
       <c r="H160" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.35">
@@ -13254,7 +13412,7 @@
         <v>585</v>
       </c>
       <c r="H161" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.35">
@@ -13269,7 +13427,7 @@
         <v>587</v>
       </c>
       <c r="H162" s="48" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="163" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -13287,7 +13445,7 @@
         <v>588</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.35">
@@ -13300,7 +13458,7 @@
         <v>589</v>
       </c>
       <c r="H164" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.35">
@@ -13313,7 +13471,7 @@
         <v>590</v>
       </c>
       <c r="H165" s="48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.35">
@@ -13326,7 +13484,7 @@
         <v>591</v>
       </c>
       <c r="H166" s="48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" spans="2:9" ht="33" x14ac:dyDescent="0.35">
@@ -13344,7 +13502,7 @@
         <v>593</v>
       </c>
       <c r="H167" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.35">
@@ -13359,44 +13517,44 @@
         <v>495</v>
       </c>
       <c r="H168" s="48" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B170" s="48" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C170" s="39" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D170" s="48">
         <v>1</v>
       </c>
       <c r="E170" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="F170" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="G170" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="F170" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="G170" s="39" t="s">
-        <v>738</v>
-      </c>
       <c r="H170" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F171" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="G171" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="H171" s="48" t="s">
         <v>737</v>
       </c>
-      <c r="G171" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="H171" s="48" t="s">
-        <v>740</v>
-      </c>
       <c r="I171" s="71" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -13404,352 +13562,365 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 H3:IS4 C7:F7 C8:D17 H7:IS11 C19:D28 C32:F32 H32:IS32 C40:D52 C79:E79 C83:F83 C84:G87 H83:IS85 C54:E57 H57:IS57 C61:D68 C60:F60 H60:IS60 G61:G67 E61 F61:F64 E63:E66 E68 F66:F67 C71:D75 H74:IS75 A126:A142 H126:IS135 C97:E99 C105:E107 E20:IS28 H40:IS40 A144:E144 A169:B1048576 A157:A168 H5 J5:IS5 H13:IS17 H12 J12:IS12 J19:IS19 H46:IS47 H41 H45 J41:IS45 H49:IS52 H48 J48:IS48 H86 J86:IS87 C91:G92 J91:IS92 J56:IS56 H62:IS68 H61 J61:IS61 J72:IS73 J144:IS144 J157:IS157 J119:IS119 H138:IS142 J136:IS137 C6:IS6 C18:IS18 C29:IS31 C80:IS82 G79:IS79 C53:IS53 G54:IS55 F71:IS71 C58:IS59 C69:IS70 C76:IS78 G105:IS107 C88:IS90 C108:IS118 A145:IS156 A143:IS143 H144 H158:IS168 H19 C33:IS39 C93:IS96 G72:H73 G97:IS99 C100:IS104 C120:IS125 C119:H119 C169:IS170 C172:IS65286 C171:H171 J171:IS171 A1:B125">
-    <cfRule type="cellIs" dxfId="84" priority="116" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 E1:G2 H1 H2:J2 H3:IS4 C7:F7 C8:D17 H7:IS11 C19:D28 C32:F32 H32:IS32 C40:D52 C79:E79 C83:F83 C84:G87 H83:IS85 C54:E57 H57:IS57 C61:D68 C60:F60 H60:IS60 G61:G67 E61 F61:F64 E63:E66 E68 F66:F67 C71:D75 H74:IS75 A126:A142 H126:IS135 C97:E99 C105:E107 E20:IS28 H40:IS40 A144:E144 A169:B1048576 A157:A168 H5 J5:IS5 H13:IS17 H12 J12:IS12 J19:IS19 H46:IS47 H41 H45 J41:IS45 H49:IS52 H48 J48:IS48 H86 J86:IS87 C91:G92 J91:IS92 J56:IS56 H62:IS65 H61 J61:IS61 J72:IS73 J144:IS144 J157:IS157 J119:IS119 H138:IS142 J136:IS137 C6:IS6 C18:IS18 C29:IS31 C80:IS82 G79:IS79 C53:IS53 G54:IS55 F71:IS71 C58:IS59 C69:IS70 C76:IS78 G105:IS107 C88:IS90 C108:IS118 A145:IS156 A143:IS143 H144 H158:IS168 H19 C33:IS39 C93:IS96 G72:H73 G97:IS99 C100:IS101 C120:IS125 C119:H119 C169:IS170 C172:IS65286 C171:H171 J171:IS171 A1:B125 H68:IS68 H66:H67 J66:IS67 C103:IS103 C102:H102 J102:IS102 C104:H104 J104:IS104">
+    <cfRule type="cellIs" dxfId="99" priority="119" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="120" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="82" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="121" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="122" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="80" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="123" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="124" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41 H45:H55 H88:H90 H57:H86 H158:H1048576 H138:H156 H93:H135">
-    <cfRule type="cellIs" dxfId="78" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G5">
-    <cfRule type="cellIs" dxfId="77" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="96" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="75" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="94" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G11">
-    <cfRule type="cellIs" dxfId="73" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="92" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15 E16:G17">
-    <cfRule type="cellIs" dxfId="71" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="90" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:G19">
-    <cfRule type="cellIs" dxfId="69" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="67" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="84" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G46">
-    <cfRule type="cellIs" dxfId="65" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="82" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G52 E47:E52">
-    <cfRule type="cellIs" dxfId="63" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="80" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F52">
-    <cfRule type="cellIs" dxfId="61" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="78" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="79" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="cellIs" dxfId="59" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="57" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:F57">
-    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:G57">
-    <cfRule type="cellIs" dxfId="53" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="51" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G75">
-    <cfRule type="cellIs" dxfId="49" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:C142">
-    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="45" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="43" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="cellIs" dxfId="41" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="cellIs" dxfId="39" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="35" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126:G135 D138:G139 D136:F137 D142:G142 D140:D141">
-    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G175:G176">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="37">
       <formula>LEN(TRIM(G175))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:F73">
-    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:G168 B157:E157">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136:G137">
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H43">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H43">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="26" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H92">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H92">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E141">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140:G141">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13776,11 +13947,16 @@
     <hyperlink ref="I119" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-1071"/>
     <hyperlink ref="I137" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1071"/>
     <hyperlink ref="I171" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-1073"/>
+    <hyperlink ref="I66" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-2547"/>
+    <hyperlink ref="I67" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-2547"/>
+    <hyperlink ref="I102" r:id="rId25" display="http://192.168.199.122:8880/browse/BG-2548"/>
+    <hyperlink ref="I104" r:id="rId26" display="http://192.168.199.122:8880/browse/BG-2548"/>
+    <hyperlink ref="I136" r:id="rId27" display="http://192.168.199.122:8880/browse/BG-2550"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId28"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
